--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_22_16.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_22_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>49962.37213544376</v>
+        <v>38803.76248553362</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18266454.8412371</v>
+        <v>18185477.69840983</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2441834.196365247</v>
+        <v>2483142.964389944</v>
       </c>
     </row>
     <row r="11">
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.748543764254287</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>5.200981756320542</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1019,13 +1019,13 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>12.56209233042347</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1037,10 +1037,10 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7485437642542886</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>20.16697784598549</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>20.16697784598549</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>20.16697784598549</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>37.52930446208636</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>37.52930446208636</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>37.52930446208636</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>33.05581137020565</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>37.52930446208636</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>20.16697784598549</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>19.22352837197766</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>20.16697784598549</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>18.70652356075183</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>5.808809210202206</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>34.25063875717579</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>30.525667864914</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>37.52930446208636</v>
       </c>
     </row>
     <row r="10">
@@ -1372,19 +1372,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>75.94786280235951</v>
+        <v>75.94786280235938</v>
       </c>
       <c r="D11" t="n">
-        <v>75.94786280235951</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>75.94786280235951</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>66.89487755631828</v>
+        <v>75.94786280235938</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>31.21809620174888</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>75.94786280235938</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>35.67678135456924</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1496,25 +1496,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>29.33532272952762</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>66.89487755631825</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>75.94786280235951</v>
+        <v>75.94786280235938</v>
       </c>
       <c r="V12" t="n">
-        <v>75.94786280235951</v>
+        <v>75.94786280235938</v>
       </c>
       <c r="W12" t="n">
-        <v>75.94786280235951</v>
+        <v>75.94786280235938</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>37.55955482679052</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>21.14745823304579</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1551,10 +1551,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>15.43521272596432</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>5.712245507081562</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>75.94786280235938</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>75.94786280235938</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>51.06139321367294</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,19 +1654,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>15.83348434264533</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>75.94786280235938</v>
       </c>
       <c r="T14" t="n">
-        <v>75.9478628023595</v>
+        <v>66.89487755631814</v>
       </c>
       <c r="U14" t="n">
-        <v>75.9478628023595</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>75.9478628023595</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1697,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>60.66629303809145</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1709,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>6.22858451822669</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1739,16 +1739,16 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>75.9478628023595</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>75.9478628023595</v>
+        <v>75.94786280235938</v>
       </c>
       <c r="V15" t="n">
-        <v>66.89487755631824</v>
+        <v>75.94786280235938</v>
       </c>
       <c r="W15" t="n">
-        <v>75.9478628023595</v>
+        <v>75.94786280235938</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>21.14745823304588</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>21.14745823304573</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1855,13 +1855,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>75.94786280235951</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>75.94786280235951</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>35.67678135456943</v>
+        <v>75.94786280235938</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1891,22 +1891,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>31.21809620174886</v>
+        <v>31.2180962017489</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>75.94786280235951</v>
+        <v>35.67678135456924</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>75.94786280235938</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>75.94786280235938</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1940,10 +1940,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>43.03853120016122</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>23.85634635615706</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1976,22 +1976,22 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>75.94786280235938</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>75.94786280235938</v>
       </c>
       <c r="W18" t="n">
-        <v>75.94786280235951</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>75.94786280235951</v>
+        <v>66.89487755631814</v>
       </c>
       <c r="Y18" t="n">
-        <v>75.94786280235951</v>
+        <v>75.94786280235938</v>
       </c>
     </row>
     <row r="19">
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>21.1474582330457</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>21.14745823304588</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2083,22 +2083,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>75.9478628023595</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>35.67678135456917</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>75.94786280235928</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>66.89487755631824</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2128,19 +2128,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>31.2180962017489</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>75.9478628023595</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>75.94786280235928</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>75.94786280235928</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>75.9478628023595</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>66.89487755631824</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2213,19 +2213,19 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>75.9478628023595</v>
+        <v>75.94786280235928</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>75.94786280235928</v>
       </c>
       <c r="W21" t="n">
-        <v>75.9478628023595</v>
+        <v>75.94786280235928</v>
       </c>
       <c r="X21" t="n">
-        <v>75.9478628023595</v>
+        <v>66.89487755631848</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>21.1474582330457</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>21.14745823304588</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2320,25 +2320,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>219.5565574740961</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>219.5565574740961</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>59.2291190807247</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>219.5565574740962</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>219.5565574740962</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>31.90177044380178</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>102.2545262986572</v>
       </c>
       <c r="T23" t="n">
-        <v>193.3854158231838</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>219.5565574740961</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>219.5565574740962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2396,25 +2396,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>35.49376133073509</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>62.85721528991137</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2450,16 +2450,16 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>97.37711064925034</v>
       </c>
       <c r="U24" t="n">
-        <v>195.3283754674364</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>211.5744117368965</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2484,10 +2484,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>28.23631971346524</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>191.2211343439799</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2554,23 +2554,23 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>193.3854158231838</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>219.5565574740961</v>
       </c>
       <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>199.0421087209538</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
         <v>219.5565574740961</v>
       </c>
-      <c r="E26" t="n">
-        <v>219.5565574740961</v>
-      </c>
-      <c r="F26" t="n">
-        <v>219.5565574740961</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
@@ -2608,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>213.8998645763261</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2636,13 +2636,13 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D27" t="n">
         <v>115.7281862028015</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2693,16 +2693,16 @@
         <v>195.3283754674364</v>
       </c>
       <c r="V27" t="n">
-        <v>211.5744117368965</v>
+        <v>127.7802852200364</v>
       </c>
       <c r="W27" t="n">
-        <v>10.34094182947057</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>191.2211343439799</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>33.32143611366081</v>
       </c>
     </row>
     <row r="29">
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
         <v>219.5565574740961</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
+      <c r="F29" t="n">
         <v>219.5565574740961</v>
       </c>
-      <c r="E29" t="n">
+      <c r="G29" t="n">
         <v>193.3854158231838</v>
       </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>219.5565574740961</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>219.5565574740961</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2873,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2882,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2918,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>12.8258886552718</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>93.09630611656613</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>154.7508334693185</v>
@@ -2930,16 +2930,16 @@
         <v>195.3283754674364</v>
       </c>
       <c r="V30" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>23.20403983092403</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>100.1752447817942</v>
       </c>
     </row>
     <row r="31">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2973,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>5.39842501387593</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>191.2211343439799</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3037,10 +3037,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>219.5565574740961</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>219.5565574740961</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3088,13 +3088,13 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
         <v>193.3854158231838</v>
-      </c>
-      <c r="W32" t="n">
-        <v>219.5565574740961</v>
-      </c>
-      <c r="X32" t="n">
-        <v>219.5565574740961</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3110,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3119,16 +3119,16 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>46.07616275087509</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>105.1765168157536</v>
       </c>
       <c r="H33" t="n">
-        <v>62.85721528991137</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>14.70128436951478</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3170,13 +3170,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X33" t="n">
         <v>174.5627220424961</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>45.18894636781048</v>
       </c>
     </row>
     <row r="34">
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>26.26673587051636</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>26.2667358705163</v>
       </c>
       <c r="G34" t="n">
         <v>164.9543984734636</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>167.140338277152</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3319,22 +3319,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>213.8998645763261</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>219.5565574740961</v>
       </c>
       <c r="V35" t="n">
-        <v>219.5565574740961</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>219.5565574740961</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>219.5565574740961</v>
       </c>
       <c r="Y35" t="n">
-        <v>161.483645379382</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,22 +3344,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>33.0885329080854</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3404,16 +3404,16 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>8.408354303843566</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W36" t="n">
         <v>211.1008365810345</v>
       </c>
       <c r="X36" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3429,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>17.55899135242036</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>173.6621429915595</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>191.2211343439799</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3502,20 +3502,20 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>219.5565574740961</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>219.5565574740961</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>193.3854158231838</v>
       </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
@@ -3562,16 +3562,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>219.5565574740962</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>219.5565574740962</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>219.5565574740962</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>219.5565574740961</v>
       </c>
     </row>
     <row r="39">
@@ -3584,19 +3584,19 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>105.6845722892616</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D39" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>17.71034264502038</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3638,16 +3638,16 @@
         <v>154.7508334693185</v>
       </c>
       <c r="U39" t="n">
-        <v>195.3283754674364</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>17.55899135242036</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>173.6621429915595</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>191.2211343439799</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>219.5565574740962</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>193.3854158231838</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>219.5565574740962</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>219.5565574740962</v>
       </c>
       <c r="F41" t="n">
-        <v>219.5565574740962</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>219.5565574740962</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>219.5565574740962</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>193.3854158231839</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3827,7 +3827,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3875,19 +3875,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>195.3283754674364</v>
       </c>
       <c r="V42" t="n">
         <v>211.5744117368965</v>
       </c>
       <c r="W42" t="n">
-        <v>27.546893609617</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X42" t="n">
-        <v>174.5627220424961</v>
+        <v>72.77623149104581</v>
       </c>
       <c r="Y42" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3957,10 +3957,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>191.22113434398</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>191.2211343439799</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>219.5565574740965</v>
+        <v>219.5565574740961</v>
       </c>
       <c r="C44" t="n">
-        <v>219.5565574740965</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>193.385415823184</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3991,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>219.5565574740965</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4036,16 +4036,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>219.5565574740961</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>193.3854158231838</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>219.5565574740961</v>
       </c>
     </row>
     <row r="45">
@@ -4061,7 +4061,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4070,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>10.34094182947058</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>72.77623149104656</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4118,13 +4118,13 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W45" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="46">
@@ -4146,10 +4146,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>26.2667358705163</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.9543984734636</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>191.2211343439803</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>2.369463040056907</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>2.369463040056907</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>2.369463040056907</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>8.029492740843512</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>27.99480080836914</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>47.96010887589478</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>63.48151711880081</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>63.48151711880081</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>63.48151711880081</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>63.48151711880081</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>43.11083242588617</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>22.74014773297154</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>2.369463040056907</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>2.369463040056907</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>2.369463040056907</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>2.369463040056907</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>2.369463040056907</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>20.37398739551631</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>40.33929546304194</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>60.30460353056756</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>80.26991159809319</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>80.66791138394194</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>67.97892923199905</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>67.97892923199905</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>47.60824453908441</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>47.60824453908441</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>47.60824453908441</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>47.60824453908441</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>27.23755984616978</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>6.866875153255144</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>6.866875153255144</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>1.613358227678839</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>62.72541230642274</v>
+        <v>3.002344356966909</v>
       </c>
       <c r="C8" t="n">
-        <v>42.3547276135081</v>
+        <v>3.002344356966909</v>
       </c>
       <c r="D8" t="n">
-        <v>21.98404292059347</v>
+        <v>3.002344356966909</v>
       </c>
       <c r="E8" t="n">
-        <v>1.613358227678839</v>
+        <v>3.002344356966909</v>
       </c>
       <c r="F8" t="n">
-        <v>1.613358227678839</v>
+        <v>3.002344356966909</v>
       </c>
       <c r="G8" t="n">
-        <v>1.613358227678839</v>
+        <v>3.002344356966909</v>
       </c>
       <c r="H8" t="n">
-        <v>1.613358227678839</v>
+        <v>3.002344356966909</v>
       </c>
       <c r="I8" t="n">
-        <v>1.613358227678839</v>
+        <v>3.002344356966909</v>
       </c>
       <c r="J8" t="n">
-        <v>1.613358227678839</v>
+        <v>3.002344356966909</v>
       </c>
       <c r="K8" t="n">
-        <v>1.613358227678839</v>
+        <v>8.579347327526897</v>
       </c>
       <c r="L8" t="n">
-        <v>8.029492740843512</v>
+        <v>30.4433262173085</v>
       </c>
       <c r="M8" t="n">
-        <v>27.99480080836914</v>
+        <v>67.59733763477398</v>
       </c>
       <c r="N8" t="n">
-        <v>47.96010887589478</v>
+        <v>104.7513490522395</v>
       </c>
       <c r="O8" t="n">
-        <v>63.48151711880081</v>
+        <v>136.7661938505102</v>
       </c>
       <c r="P8" t="n">
-        <v>63.48151711880081</v>
+        <v>150.1172178483454</v>
       </c>
       <c r="Q8" t="n">
-        <v>63.48151711880081</v>
+        <v>150.1172178483454</v>
       </c>
       <c r="R8" t="n">
-        <v>63.48151711880081</v>
+        <v>150.1172178483454</v>
       </c>
       <c r="S8" t="n">
-        <v>63.48151711880081</v>
+        <v>150.1172178483454</v>
       </c>
       <c r="T8" t="n">
-        <v>63.48151711880081</v>
+        <v>112.2088295028037</v>
       </c>
       <c r="U8" t="n">
-        <v>63.48151711880081</v>
+        <v>74.30044115726187</v>
       </c>
       <c r="V8" t="n">
-        <v>63.48151711880081</v>
+        <v>36.39205281172009</v>
       </c>
       <c r="W8" t="n">
-        <v>63.48151711880081</v>
+        <v>3.002344356966909</v>
       </c>
       <c r="X8" t="n">
-        <v>63.48151711880081</v>
+        <v>3.002344356966909</v>
       </c>
       <c r="Y8" t="n">
-        <v>63.48151711880081</v>
+        <v>3.002344356966909</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>80.66791138394194</v>
+        <v>3.002344356966909</v>
       </c>
       <c r="C9" t="n">
-        <v>80.66791138394194</v>
+        <v>3.002344356966909</v>
       </c>
       <c r="D9" t="n">
-        <v>80.66791138394194</v>
+        <v>3.002344356966909</v>
       </c>
       <c r="E9" t="n">
-        <v>80.66791138394194</v>
+        <v>3.002344356966909</v>
       </c>
       <c r="F9" t="n">
-        <v>60.2972266910273</v>
+        <v>3.002344356966909</v>
       </c>
       <c r="G9" t="n">
-        <v>40.87952126478724</v>
+        <v>3.002344356966909</v>
       </c>
       <c r="H9" t="n">
-        <v>20.50883657187261</v>
+        <v>3.002344356966909</v>
       </c>
       <c r="I9" t="n">
-        <v>20.50883657187261</v>
+        <v>3.002344356966909</v>
       </c>
       <c r="J9" t="n">
-        <v>1.613358227678839</v>
+        <v>3.002344356966909</v>
       </c>
       <c r="K9" t="n">
-        <v>1.613358227678839</v>
+        <v>11.45991954906469</v>
       </c>
       <c r="L9" t="n">
-        <v>20.37398739551631</v>
+        <v>17.44797966023116</v>
       </c>
       <c r="M9" t="n">
-        <v>40.33929546304194</v>
+        <v>54.60199107769665</v>
       </c>
       <c r="N9" t="n">
-        <v>49.06294529190112</v>
+        <v>91.75600249516215</v>
       </c>
       <c r="O9" t="n">
-        <v>69.02825335942674</v>
+        <v>128.4760412668171</v>
       </c>
       <c r="P9" t="n">
-        <v>80.66791138394194</v>
+        <v>150.1172178483454</v>
       </c>
       <c r="Q9" t="n">
-        <v>80.66791138394194</v>
+        <v>144.2497337976361</v>
       </c>
       <c r="R9" t="n">
-        <v>80.66791138394194</v>
+        <v>109.6531289924081</v>
       </c>
       <c r="S9" t="n">
-        <v>80.66791138394194</v>
+        <v>109.6531289924081</v>
       </c>
       <c r="T9" t="n">
-        <v>80.66791138394194</v>
+        <v>109.6531289924081</v>
       </c>
       <c r="U9" t="n">
-        <v>80.66791138394194</v>
+        <v>78.81912104805048</v>
       </c>
       <c r="V9" t="n">
-        <v>80.66791138394194</v>
+        <v>78.81912104805048</v>
       </c>
       <c r="W9" t="n">
-        <v>80.66791138394194</v>
+        <v>78.81912104805048</v>
       </c>
       <c r="X9" t="n">
-        <v>80.66791138394194</v>
+        <v>78.81912104805048</v>
       </c>
       <c r="Y9" t="n">
-        <v>80.66791138394194</v>
+        <v>40.91073270250869</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.613358227678839</v>
+        <v>3.002344356966909</v>
       </c>
       <c r="C10" t="n">
-        <v>1.613358227678839</v>
+        <v>3.002344356966909</v>
       </c>
       <c r="D10" t="n">
-        <v>1.613358227678839</v>
+        <v>3.002344356966909</v>
       </c>
       <c r="E10" t="n">
-        <v>1.613358227678839</v>
+        <v>3.002344356966909</v>
       </c>
       <c r="F10" t="n">
-        <v>1.613358227678839</v>
+        <v>3.002344356966909</v>
       </c>
       <c r="G10" t="n">
-        <v>1.613358227678839</v>
+        <v>3.002344356966909</v>
       </c>
       <c r="H10" t="n">
-        <v>1.613358227678839</v>
+        <v>3.002344356966909</v>
       </c>
       <c r="I10" t="n">
-        <v>1.613358227678839</v>
+        <v>3.002344356966909</v>
       </c>
       <c r="J10" t="n">
-        <v>1.613358227678839</v>
+        <v>3.002344356966909</v>
       </c>
       <c r="K10" t="n">
-        <v>1.613358227678839</v>
+        <v>3.002344356966909</v>
       </c>
       <c r="L10" t="n">
-        <v>1.613358227678839</v>
+        <v>3.002344356966909</v>
       </c>
       <c r="M10" t="n">
-        <v>1.613358227678839</v>
+        <v>3.002344356966909</v>
       </c>
       <c r="N10" t="n">
-        <v>1.613358227678839</v>
+        <v>3.002344356966909</v>
       </c>
       <c r="O10" t="n">
-        <v>1.613358227678839</v>
+        <v>3.002344356966909</v>
       </c>
       <c r="P10" t="n">
-        <v>1.613358227678839</v>
+        <v>3.002344356966909</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.613358227678839</v>
+        <v>3.002344356966909</v>
       </c>
       <c r="R10" t="n">
-        <v>1.613358227678839</v>
+        <v>3.002344356966909</v>
       </c>
       <c r="S10" t="n">
-        <v>1.613358227678839</v>
+        <v>3.002344356966909</v>
       </c>
       <c r="T10" t="n">
-        <v>1.613358227678839</v>
+        <v>3.002344356966909</v>
       </c>
       <c r="U10" t="n">
-        <v>1.613358227678839</v>
+        <v>3.002344356966909</v>
       </c>
       <c r="V10" t="n">
-        <v>1.613358227678839</v>
+        <v>3.002344356966909</v>
       </c>
       <c r="W10" t="n">
-        <v>1.613358227678839</v>
+        <v>3.002344356966909</v>
       </c>
       <c r="X10" t="n">
-        <v>1.613358227678839</v>
+        <v>3.002344356966909</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.613358227678839</v>
+        <v>3.002344356966909</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>303.791451209438</v>
+        <v>159.505854887541</v>
       </c>
       <c r="C11" t="n">
-        <v>227.0764382777618</v>
+        <v>82.79084195586489</v>
       </c>
       <c r="D11" t="n">
-        <v>150.3614253460855</v>
+        <v>82.79084195586489</v>
       </c>
       <c r="E11" t="n">
-        <v>73.64641241440926</v>
+        <v>82.79084195586489</v>
       </c>
       <c r="F11" t="n">
-        <v>73.64641241440926</v>
+        <v>82.79084195586489</v>
       </c>
       <c r="G11" t="n">
-        <v>6.075829024188761</v>
+        <v>6.07582902418875</v>
       </c>
       <c r="H11" t="n">
-        <v>6.075829024188761</v>
+        <v>6.07582902418875</v>
       </c>
       <c r="I11" t="n">
-        <v>6.075829024188761</v>
+        <v>6.07582902418875</v>
       </c>
       <c r="J11" t="n">
-        <v>8.518653200747888</v>
+        <v>8.518653200747863</v>
       </c>
       <c r="K11" t="n">
-        <v>32.72891329418867</v>
+        <v>32.7289132941886</v>
       </c>
       <c r="L11" t="n">
-        <v>77.70909531020689</v>
+        <v>77.70909531020669</v>
       </c>
       <c r="M11" t="n">
-        <v>140.5843367211125</v>
+        <v>140.5843367211122</v>
       </c>
       <c r="N11" t="n">
-        <v>206.3455576655149</v>
+        <v>206.3455576655146</v>
       </c>
       <c r="O11" t="n">
-        <v>263.0412330294159</v>
+        <v>263.0412330294155</v>
       </c>
       <c r="P11" t="n">
-        <v>297.4567749038205</v>
+        <v>297.4567749038201</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.791451209438</v>
+        <v>303.7914512094375</v>
       </c>
       <c r="R11" t="n">
-        <v>303.791451209438</v>
+        <v>272.2580207026205</v>
       </c>
       <c r="S11" t="n">
-        <v>303.791451209438</v>
+        <v>195.5430077709443</v>
       </c>
       <c r="T11" t="n">
-        <v>303.791451209438</v>
+        <v>195.5430077709443</v>
       </c>
       <c r="U11" t="n">
-        <v>303.791451209438</v>
+        <v>195.5430077709443</v>
       </c>
       <c r="V11" t="n">
-        <v>303.791451209438</v>
+        <v>195.5430077709443</v>
       </c>
       <c r="W11" t="n">
-        <v>303.791451209438</v>
+        <v>195.5430077709443</v>
       </c>
       <c r="X11" t="n">
-        <v>303.791451209438</v>
+        <v>159.505854887541</v>
       </c>
       <c r="Y11" t="n">
-        <v>303.791451209438</v>
+        <v>159.505854887541</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6.075829024188761</v>
+        <v>6.07582902418875</v>
       </c>
       <c r="C12" t="n">
-        <v>6.075829024188761</v>
+        <v>6.07582902418875</v>
       </c>
       <c r="D12" t="n">
-        <v>6.075829024188761</v>
+        <v>6.07582902418875</v>
       </c>
       <c r="E12" t="n">
-        <v>6.075829024188761</v>
+        <v>6.07582902418875</v>
       </c>
       <c r="F12" t="n">
-        <v>6.075829024188761</v>
+        <v>6.07582902418875</v>
       </c>
       <c r="G12" t="n">
-        <v>6.075829024188761</v>
+        <v>6.07582902418875</v>
       </c>
       <c r="H12" t="n">
-        <v>6.075829024188761</v>
+        <v>6.07582902418875</v>
       </c>
       <c r="I12" t="n">
-        <v>6.075829024188761</v>
+        <v>6.07582902418875</v>
       </c>
       <c r="J12" t="n">
-        <v>6.075829024188761</v>
+        <v>6.07582902418875</v>
       </c>
       <c r="K12" t="n">
-        <v>27.18934645194802</v>
+        <v>27.189346451948</v>
       </c>
       <c r="L12" t="n">
-        <v>74.33970537129221</v>
+        <v>74.33970537129215</v>
       </c>
       <c r="M12" t="n">
-        <v>137.2014819011798</v>
+        <v>137.2014819011796</v>
       </c>
       <c r="N12" t="n">
-        <v>207.5625237956372</v>
+        <v>207.562523795637</v>
       </c>
       <c r="O12" t="n">
-        <v>262.9301139282919</v>
+        <v>262.9301139282917</v>
       </c>
       <c r="P12" t="n">
-        <v>299.5375944741908</v>
+        <v>299.5375944741905</v>
       </c>
       <c r="Q12" t="n">
-        <v>303.791451209438</v>
+        <v>303.7914512094375</v>
       </c>
       <c r="R12" t="n">
-        <v>303.791451209438</v>
+        <v>274.1598120887026</v>
       </c>
       <c r="S12" t="n">
-        <v>303.791451209438</v>
+        <v>274.1598120887026</v>
       </c>
       <c r="T12" t="n">
-        <v>236.2208678192176</v>
+        <v>274.1598120887026</v>
       </c>
       <c r="U12" t="n">
-        <v>159.5058548875413</v>
+        <v>197.4447991570264</v>
       </c>
       <c r="V12" t="n">
-        <v>82.79084195586503</v>
+        <v>120.7297862253503</v>
       </c>
       <c r="W12" t="n">
-        <v>6.075829024188761</v>
+        <v>44.01477329367412</v>
       </c>
       <c r="X12" t="n">
-        <v>6.075829024188761</v>
+        <v>6.07582902418875</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.075829024188761</v>
+        <v>6.07582902418875</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>27.43689794645733</v>
+        <v>27.43689794645723</v>
       </c>
       <c r="C13" t="n">
-        <v>27.43689794645733</v>
+        <v>27.43689794645723</v>
       </c>
       <c r="D13" t="n">
-        <v>27.43689794645733</v>
+        <v>27.43689794645723</v>
       </c>
       <c r="E13" t="n">
-        <v>27.43689794645733</v>
+        <v>27.43689794645723</v>
       </c>
       <c r="F13" t="n">
-        <v>27.43689794645733</v>
+        <v>6.07582902418875</v>
       </c>
       <c r="G13" t="n">
-        <v>27.43689794645733</v>
+        <v>6.07582902418875</v>
       </c>
       <c r="H13" t="n">
-        <v>27.43689794645733</v>
+        <v>6.07582902418875</v>
       </c>
       <c r="I13" t="n">
-        <v>27.43689794645733</v>
+        <v>6.07582902418875</v>
       </c>
       <c r="J13" t="n">
-        <v>11.8457739808368</v>
+        <v>6.07582902418875</v>
       </c>
       <c r="K13" t="n">
-        <v>6.075829024188761</v>
+        <v>6.07582902418875</v>
       </c>
       <c r="L13" t="n">
-        <v>10.95106657773219</v>
+        <v>10.95106657773216</v>
       </c>
       <c r="M13" t="n">
-        <v>17.41092563994137</v>
+        <v>17.41092563994131</v>
       </c>
       <c r="N13" t="n">
-        <v>26.8994816840551</v>
+        <v>26.89948168405502</v>
       </c>
       <c r="O13" t="n">
-        <v>27.43689794645733</v>
+        <v>27.43689794645723</v>
       </c>
       <c r="P13" t="n">
-        <v>27.43689794645733</v>
+        <v>27.43689794645723</v>
       </c>
       <c r="Q13" t="n">
-        <v>27.43689794645733</v>
+        <v>27.43689794645723</v>
       </c>
       <c r="R13" t="n">
-        <v>27.43689794645733</v>
+        <v>27.43689794645723</v>
       </c>
       <c r="S13" t="n">
-        <v>27.43689794645733</v>
+        <v>27.43689794645723</v>
       </c>
       <c r="T13" t="n">
-        <v>27.43689794645733</v>
+        <v>27.43689794645723</v>
       </c>
       <c r="U13" t="n">
-        <v>27.43689794645733</v>
+        <v>27.43689794645723</v>
       </c>
       <c r="V13" t="n">
-        <v>27.43689794645733</v>
+        <v>27.43689794645723</v>
       </c>
       <c r="W13" t="n">
-        <v>27.43689794645733</v>
+        <v>27.43689794645723</v>
       </c>
       <c r="X13" t="n">
-        <v>27.43689794645733</v>
+        <v>27.43689794645723</v>
       </c>
       <c r="Y13" t="n">
-        <v>27.43689794645733</v>
+        <v>27.43689794645723</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>57.65299388648467</v>
+        <v>82.79084195586489</v>
       </c>
       <c r="C14" t="n">
-        <v>57.65299388648467</v>
+        <v>6.07582902418875</v>
       </c>
       <c r="D14" t="n">
-        <v>57.65299388648467</v>
+        <v>6.07582902418875</v>
       </c>
       <c r="E14" t="n">
-        <v>57.65299388648467</v>
+        <v>6.07582902418875</v>
       </c>
       <c r="F14" t="n">
-        <v>57.65299388648467</v>
+        <v>6.07582902418875</v>
       </c>
       <c r="G14" t="n">
-        <v>57.65299388648467</v>
+        <v>6.07582902418875</v>
       </c>
       <c r="H14" t="n">
-        <v>57.65299388648467</v>
+        <v>6.07582902418875</v>
       </c>
       <c r="I14" t="n">
-        <v>6.07582902418876</v>
+        <v>6.07582902418875</v>
       </c>
       <c r="J14" t="n">
-        <v>8.518653200747877</v>
+        <v>8.518653200747735</v>
       </c>
       <c r="K14" t="n">
-        <v>32.72891329418866</v>
+        <v>32.7289132941886</v>
       </c>
       <c r="L14" t="n">
         <v>77.70909531020686</v>
       </c>
       <c r="M14" t="n">
-        <v>140.5843367211124</v>
+        <v>140.5843367211122</v>
       </c>
       <c r="N14" t="n">
-        <v>206.3455576655149</v>
+        <v>206.3455576655145</v>
       </c>
       <c r="O14" t="n">
-        <v>263.0412330294159</v>
+        <v>263.0412330294154</v>
       </c>
       <c r="P14" t="n">
-        <v>297.4567749038205</v>
+        <v>297.4567749038201</v>
       </c>
       <c r="Q14" t="n">
-        <v>303.791451209438</v>
+        <v>303.7914512094375</v>
       </c>
       <c r="R14" t="n">
-        <v>287.7980326815134</v>
+        <v>303.7914512094375</v>
       </c>
       <c r="S14" t="n">
-        <v>287.7980326815134</v>
+        <v>227.0764382777614</v>
       </c>
       <c r="T14" t="n">
-        <v>211.0830197498372</v>
+        <v>159.505854887541</v>
       </c>
       <c r="U14" t="n">
-        <v>134.3680068181609</v>
+        <v>159.505854887541</v>
       </c>
       <c r="V14" t="n">
-        <v>57.65299388648467</v>
+        <v>159.505854887541</v>
       </c>
       <c r="W14" t="n">
-        <v>57.65299388648467</v>
+        <v>159.505854887541</v>
       </c>
       <c r="X14" t="n">
-        <v>57.65299388648467</v>
+        <v>159.505854887541</v>
       </c>
       <c r="Y14" t="n">
-        <v>57.65299388648467</v>
+        <v>159.505854887541</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6.07582902418876</v>
+        <v>73.6464124144091</v>
       </c>
       <c r="C15" t="n">
-        <v>6.07582902418876</v>
+        <v>73.6464124144091</v>
       </c>
       <c r="D15" t="n">
-        <v>6.07582902418876</v>
+        <v>73.6464124144091</v>
       </c>
       <c r="E15" t="n">
-        <v>6.07582902418876</v>
+        <v>73.6464124144091</v>
       </c>
       <c r="F15" t="n">
-        <v>6.07582902418876</v>
+        <v>12.36732853754904</v>
       </c>
       <c r="G15" t="n">
-        <v>6.07582902418876</v>
+        <v>12.36732853754904</v>
       </c>
       <c r="H15" t="n">
-        <v>6.07582902418876</v>
+        <v>12.36732853754904</v>
       </c>
       <c r="I15" t="n">
-        <v>6.07582902418876</v>
+        <v>12.36732853754904</v>
       </c>
       <c r="J15" t="n">
-        <v>6.07582902418876</v>
+        <v>6.07582902418875</v>
       </c>
       <c r="K15" t="n">
-        <v>27.18934645194803</v>
+        <v>27.18934645194797</v>
       </c>
       <c r="L15" t="n">
-        <v>74.33970537129223</v>
+        <v>74.3397053712921</v>
       </c>
       <c r="M15" t="n">
-        <v>137.2014819011797</v>
+        <v>137.2014819011795</v>
       </c>
       <c r="N15" t="n">
-        <v>207.5625237956372</v>
+        <v>207.5625237956368</v>
       </c>
       <c r="O15" t="n">
-        <v>262.9301139282918</v>
+        <v>262.9301139282915</v>
       </c>
       <c r="P15" t="n">
-        <v>299.5375944741908</v>
+        <v>299.5375944741903</v>
       </c>
       <c r="Q15" t="n">
-        <v>303.791451209438</v>
+        <v>303.7914512094375</v>
       </c>
       <c r="R15" t="n">
-        <v>303.791451209438</v>
+        <v>303.7914512094375</v>
       </c>
       <c r="S15" t="n">
-        <v>303.791451209438</v>
+        <v>303.7914512094375</v>
       </c>
       <c r="T15" t="n">
-        <v>227.0764382777617</v>
+        <v>303.7914512094375</v>
       </c>
       <c r="U15" t="n">
-        <v>150.3614253460855</v>
+        <v>227.0764382777614</v>
       </c>
       <c r="V15" t="n">
-        <v>82.79084195586502</v>
+        <v>150.3614253460852</v>
       </c>
       <c r="W15" t="n">
-        <v>6.07582902418876</v>
+        <v>73.6464124144091</v>
       </c>
       <c r="X15" t="n">
-        <v>6.07582902418876</v>
+        <v>73.6464124144091</v>
       </c>
       <c r="Y15" t="n">
-        <v>6.07582902418876</v>
+        <v>73.6464124144091</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6.07582902418876</v>
+        <v>6.07582902418875</v>
       </c>
       <c r="C16" t="n">
-        <v>6.07582902418876</v>
+        <v>6.07582902418875</v>
       </c>
       <c r="D16" t="n">
-        <v>6.07582902418876</v>
+        <v>6.07582902418875</v>
       </c>
       <c r="E16" t="n">
-        <v>6.07582902418876</v>
+        <v>6.07582902418875</v>
       </c>
       <c r="F16" t="n">
-        <v>6.07582902418876</v>
+        <v>6.07582902418875</v>
       </c>
       <c r="G16" t="n">
-        <v>6.07582902418876</v>
+        <v>6.07582902418875</v>
       </c>
       <c r="H16" t="n">
-        <v>6.07582902418876</v>
+        <v>6.07582902418875</v>
       </c>
       <c r="I16" t="n">
-        <v>6.07582902418876</v>
+        <v>6.07582902418875</v>
       </c>
       <c r="J16" t="n">
-        <v>6.07582902418876</v>
+        <v>6.07582902418875</v>
       </c>
       <c r="K16" t="n">
-        <v>6.07582902418876</v>
+        <v>6.07582902418875</v>
       </c>
       <c r="L16" t="n">
-        <v>10.95106657773219</v>
+        <v>10.95106657773213</v>
       </c>
       <c r="M16" t="n">
-        <v>17.41092563994137</v>
+        <v>17.41092563994127</v>
       </c>
       <c r="N16" t="n">
-        <v>26.8994816840551</v>
+        <v>26.89948168405497</v>
       </c>
       <c r="O16" t="n">
-        <v>27.43689794645733</v>
+        <v>27.43689794645717</v>
       </c>
       <c r="P16" t="n">
-        <v>27.43689794645733</v>
+        <v>27.43689794645717</v>
       </c>
       <c r="Q16" t="n">
-        <v>27.43689794645733</v>
+        <v>27.43689794645717</v>
       </c>
       <c r="R16" t="n">
-        <v>27.43689794645733</v>
+        <v>27.43689794645717</v>
       </c>
       <c r="S16" t="n">
-        <v>6.07582902418876</v>
+        <v>27.43689794645717</v>
       </c>
       <c r="T16" t="n">
-        <v>6.07582902418876</v>
+        <v>27.43689794645717</v>
       </c>
       <c r="U16" t="n">
-        <v>6.07582902418876</v>
+        <v>6.07582902418875</v>
       </c>
       <c r="V16" t="n">
-        <v>6.07582902418876</v>
+        <v>6.07582902418875</v>
       </c>
       <c r="W16" t="n">
-        <v>6.07582902418876</v>
+        <v>6.07582902418875</v>
       </c>
       <c r="X16" t="n">
-        <v>6.07582902418876</v>
+        <v>6.07582902418875</v>
       </c>
       <c r="Y16" t="n">
-        <v>6.07582902418876</v>
+        <v>6.07582902418875</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>195.5430077709448</v>
+        <v>82.79084195586489</v>
       </c>
       <c r="C17" t="n">
-        <v>195.5430077709448</v>
+        <v>82.79084195586489</v>
       </c>
       <c r="D17" t="n">
-        <v>195.5430077709448</v>
+        <v>82.79084195586489</v>
       </c>
       <c r="E17" t="n">
-        <v>195.5430077709448</v>
+        <v>82.79084195586489</v>
       </c>
       <c r="F17" t="n">
-        <v>118.8279948392685</v>
+        <v>82.79084195586489</v>
       </c>
       <c r="G17" t="n">
-        <v>42.11298190759223</v>
+        <v>82.79084195586489</v>
       </c>
       <c r="H17" t="n">
-        <v>6.075829024188761</v>
+        <v>6.07582902418875</v>
       </c>
       <c r="I17" t="n">
-        <v>6.075829024188761</v>
+        <v>6.07582902418875</v>
       </c>
       <c r="J17" t="n">
-        <v>8.518653200747883</v>
+        <v>8.51865320074783</v>
       </c>
       <c r="K17" t="n">
-        <v>32.72891329418866</v>
+        <v>32.72891329418871</v>
       </c>
       <c r="L17" t="n">
         <v>77.70909531020686</v>
       </c>
       <c r="M17" t="n">
-        <v>140.5843367211124</v>
+        <v>140.5843367211123</v>
       </c>
       <c r="N17" t="n">
-        <v>206.3455576655149</v>
+        <v>206.3455576655146</v>
       </c>
       <c r="O17" t="n">
-        <v>263.0412330294159</v>
+        <v>263.0412330294155</v>
       </c>
       <c r="P17" t="n">
-        <v>297.4567749038205</v>
+        <v>297.4567749038201</v>
       </c>
       <c r="Q17" t="n">
-        <v>303.791451209438</v>
+        <v>303.7914512094375</v>
       </c>
       <c r="R17" t="n">
-        <v>272.258020702621</v>
+        <v>272.2580207026205</v>
       </c>
       <c r="S17" t="n">
-        <v>272.258020702621</v>
+        <v>272.2580207026205</v>
       </c>
       <c r="T17" t="n">
-        <v>195.5430077709448</v>
+        <v>236.2208678192172</v>
       </c>
       <c r="U17" t="n">
-        <v>195.5430077709448</v>
+        <v>159.505854887541</v>
       </c>
       <c r="V17" t="n">
-        <v>195.5430077709448</v>
+        <v>159.505854887541</v>
       </c>
       <c r="W17" t="n">
-        <v>195.5430077709448</v>
+        <v>82.79084195586489</v>
       </c>
       <c r="X17" t="n">
-        <v>195.5430077709448</v>
+        <v>82.79084195586489</v>
       </c>
       <c r="Y17" t="n">
-        <v>195.5430077709448</v>
+        <v>82.79084195586489</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>73.64641241440926</v>
+        <v>6.07582902418875</v>
       </c>
       <c r="C18" t="n">
-        <v>73.64641241440926</v>
+        <v>6.07582902418875</v>
       </c>
       <c r="D18" t="n">
-        <v>73.64641241440926</v>
+        <v>6.07582902418875</v>
       </c>
       <c r="E18" t="n">
-        <v>73.64641241440926</v>
+        <v>6.07582902418875</v>
       </c>
       <c r="F18" t="n">
-        <v>73.64641241440926</v>
+        <v>6.07582902418875</v>
       </c>
       <c r="G18" t="n">
-        <v>73.64641241440926</v>
+        <v>6.07582902418875</v>
       </c>
       <c r="H18" t="n">
-        <v>30.17314857586256</v>
+        <v>6.07582902418875</v>
       </c>
       <c r="I18" t="n">
-        <v>6.075829024188761</v>
+        <v>6.07582902418875</v>
       </c>
       <c r="J18" t="n">
-        <v>6.075829024188761</v>
+        <v>6.07582902418875</v>
       </c>
       <c r="K18" t="n">
-        <v>27.18934645194804</v>
+        <v>27.18934645194797</v>
       </c>
       <c r="L18" t="n">
-        <v>74.33970537129223</v>
+        <v>74.33970537129207</v>
       </c>
       <c r="M18" t="n">
-        <v>137.2014819011798</v>
+        <v>137.2014819011795</v>
       </c>
       <c r="N18" t="n">
-        <v>207.5625237956372</v>
+        <v>207.5625237956369</v>
       </c>
       <c r="O18" t="n">
-        <v>262.9301139282919</v>
+        <v>262.9301139282915</v>
       </c>
       <c r="P18" t="n">
-        <v>299.5375944741908</v>
+        <v>299.5375944741903</v>
       </c>
       <c r="Q18" t="n">
-        <v>303.791451209438</v>
+        <v>303.7914512094375</v>
       </c>
       <c r="R18" t="n">
-        <v>303.791451209438</v>
+        <v>303.7914512094375</v>
       </c>
       <c r="S18" t="n">
-        <v>303.791451209438</v>
+        <v>303.7914512094375</v>
       </c>
       <c r="T18" t="n">
-        <v>303.791451209438</v>
+        <v>227.0764382777614</v>
       </c>
       <c r="U18" t="n">
-        <v>303.791451209438</v>
+        <v>227.0764382777614</v>
       </c>
       <c r="V18" t="n">
-        <v>303.791451209438</v>
+        <v>150.3614253460852</v>
       </c>
       <c r="W18" t="n">
-        <v>227.0764382777618</v>
+        <v>150.3614253460852</v>
       </c>
       <c r="X18" t="n">
-        <v>150.3614253460855</v>
+        <v>82.79084195586489</v>
       </c>
       <c r="Y18" t="n">
-        <v>73.64641241440926</v>
+        <v>6.07582902418875</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>27.43689794645733</v>
+        <v>27.43689794645714</v>
       </c>
       <c r="C19" t="n">
-        <v>27.43689794645733</v>
+        <v>27.43689794645714</v>
       </c>
       <c r="D19" t="n">
-        <v>27.43689794645733</v>
+        <v>6.07582902418875</v>
       </c>
       <c r="E19" t="n">
-        <v>27.43689794645733</v>
+        <v>6.07582902418875</v>
       </c>
       <c r="F19" t="n">
-        <v>27.43689794645733</v>
+        <v>6.07582902418875</v>
       </c>
       <c r="G19" t="n">
-        <v>6.075829024188761</v>
+        <v>6.07582902418875</v>
       </c>
       <c r="H19" t="n">
-        <v>6.075829024188761</v>
+        <v>6.07582902418875</v>
       </c>
       <c r="I19" t="n">
-        <v>6.075829024188761</v>
+        <v>6.07582902418875</v>
       </c>
       <c r="J19" t="n">
-        <v>6.075829024188761</v>
+        <v>6.07582902418875</v>
       </c>
       <c r="K19" t="n">
-        <v>6.075829024188761</v>
+        <v>6.07582902418875</v>
       </c>
       <c r="L19" t="n">
-        <v>10.95106657773219</v>
+        <v>10.95106657773213</v>
       </c>
       <c r="M19" t="n">
-        <v>17.41092563994137</v>
+        <v>17.41092563994126</v>
       </c>
       <c r="N19" t="n">
-        <v>26.8994816840551</v>
+        <v>26.89948168405495</v>
       </c>
       <c r="O19" t="n">
-        <v>27.43689794645733</v>
+        <v>27.43689794645714</v>
       </c>
       <c r="P19" t="n">
-        <v>27.43689794645733</v>
+        <v>27.43689794645714</v>
       </c>
       <c r="Q19" t="n">
-        <v>27.43689794645733</v>
+        <v>27.43689794645714</v>
       </c>
       <c r="R19" t="n">
-        <v>27.43689794645733</v>
+        <v>27.43689794645714</v>
       </c>
       <c r="S19" t="n">
-        <v>27.43689794645733</v>
+        <v>27.43689794645714</v>
       </c>
       <c r="T19" t="n">
-        <v>27.43689794645733</v>
+        <v>27.43689794645714</v>
       </c>
       <c r="U19" t="n">
-        <v>27.43689794645733</v>
+        <v>27.43689794645714</v>
       </c>
       <c r="V19" t="n">
-        <v>27.43689794645733</v>
+        <v>27.43689794645714</v>
       </c>
       <c r="W19" t="n">
-        <v>27.43689794645733</v>
+        <v>27.43689794645714</v>
       </c>
       <c r="X19" t="n">
-        <v>27.43689794645733</v>
+        <v>27.43689794645714</v>
       </c>
       <c r="Y19" t="n">
-        <v>27.43689794645733</v>
+        <v>27.43689794645714</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>150.3614253460855</v>
+        <v>118.827994839268</v>
       </c>
       <c r="C20" t="n">
-        <v>73.64641241440921</v>
+        <v>118.827994839268</v>
       </c>
       <c r="D20" t="n">
-        <v>73.64641241440921</v>
+        <v>82.79084195586478</v>
       </c>
       <c r="E20" t="n">
-        <v>73.64641241440921</v>
+        <v>82.79084195586478</v>
       </c>
       <c r="F20" t="n">
-        <v>73.64641241440921</v>
+        <v>6.075829024188742</v>
       </c>
       <c r="G20" t="n">
-        <v>73.64641241440921</v>
+        <v>6.075829024188742</v>
       </c>
       <c r="H20" t="n">
-        <v>6.07582902418876</v>
+        <v>6.075829024188742</v>
       </c>
       <c r="I20" t="n">
-        <v>6.07582902418876</v>
+        <v>6.075829024188742</v>
       </c>
       <c r="J20" t="n">
-        <v>8.518653200747892</v>
+        <v>8.518653200747792</v>
       </c>
       <c r="K20" t="n">
-        <v>32.72891329418867</v>
+        <v>32.72891329418849</v>
       </c>
       <c r="L20" t="n">
-        <v>77.70909531020678</v>
+        <v>77.70909531020658</v>
       </c>
       <c r="M20" t="n">
-        <v>140.5843367211124</v>
+        <v>140.584336721112</v>
       </c>
       <c r="N20" t="n">
-        <v>206.3455576655148</v>
+        <v>206.3455576655143</v>
       </c>
       <c r="O20" t="n">
-        <v>263.0412330294158</v>
+        <v>263.0412330294152</v>
       </c>
       <c r="P20" t="n">
-        <v>297.4567749038205</v>
+        <v>297.4567749038197</v>
       </c>
       <c r="Q20" t="n">
-        <v>303.791451209438</v>
+        <v>303.7914512094371</v>
       </c>
       <c r="R20" t="n">
-        <v>303.791451209438</v>
+        <v>272.2580207026201</v>
       </c>
       <c r="S20" t="n">
-        <v>303.791451209438</v>
+        <v>272.2580207026201</v>
       </c>
       <c r="T20" t="n">
-        <v>227.0764382777617</v>
+        <v>272.2580207026201</v>
       </c>
       <c r="U20" t="n">
-        <v>227.0764382777617</v>
+        <v>195.543007770944</v>
       </c>
       <c r="V20" t="n">
-        <v>227.0764382777617</v>
+        <v>118.827994839268</v>
       </c>
       <c r="W20" t="n">
-        <v>227.0764382777617</v>
+        <v>118.827994839268</v>
       </c>
       <c r="X20" t="n">
-        <v>227.0764382777617</v>
+        <v>118.827994839268</v>
       </c>
       <c r="Y20" t="n">
-        <v>150.3614253460855</v>
+        <v>118.827994839268</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>6.07582902418876</v>
+        <v>6.075829024188742</v>
       </c>
       <c r="C21" t="n">
-        <v>6.07582902418876</v>
+        <v>6.075829024188742</v>
       </c>
       <c r="D21" t="n">
-        <v>6.07582902418876</v>
+        <v>6.075829024188742</v>
       </c>
       <c r="E21" t="n">
-        <v>6.07582902418876</v>
+        <v>6.075829024188742</v>
       </c>
       <c r="F21" t="n">
-        <v>6.07582902418876</v>
+        <v>6.075829024188742</v>
       </c>
       <c r="G21" t="n">
-        <v>6.07582902418876</v>
+        <v>6.075829024188742</v>
       </c>
       <c r="H21" t="n">
-        <v>6.07582902418876</v>
+        <v>6.075829024188742</v>
       </c>
       <c r="I21" t="n">
-        <v>6.07582902418876</v>
+        <v>6.075829024188742</v>
       </c>
       <c r="J21" t="n">
-        <v>6.07582902418876</v>
+        <v>6.075829024188742</v>
       </c>
       <c r="K21" t="n">
-        <v>27.18934645194804</v>
+        <v>27.18934645194796</v>
       </c>
       <c r="L21" t="n">
-        <v>74.33970537129223</v>
+        <v>74.33970537129207</v>
       </c>
       <c r="M21" t="n">
-        <v>137.2014819011798</v>
+        <v>137.2014819011795</v>
       </c>
       <c r="N21" t="n">
-        <v>207.5625237956372</v>
+        <v>207.5625237956369</v>
       </c>
       <c r="O21" t="n">
-        <v>262.9301139282919</v>
+        <v>262.9301139282915</v>
       </c>
       <c r="P21" t="n">
-        <v>299.5375944741908</v>
+        <v>299.5375944741903</v>
       </c>
       <c r="Q21" t="n">
-        <v>303.791451209438</v>
+        <v>303.7914512094375</v>
       </c>
       <c r="R21" t="n">
-        <v>303.791451209438</v>
+        <v>303.7914512094375</v>
       </c>
       <c r="S21" t="n">
-        <v>303.791451209438</v>
+        <v>303.7914512094375</v>
       </c>
       <c r="T21" t="n">
-        <v>227.0764382777617</v>
+        <v>227.0764382777615</v>
       </c>
       <c r="U21" t="n">
-        <v>227.0764382777617</v>
+        <v>227.0764382777615</v>
       </c>
       <c r="V21" t="n">
-        <v>227.0764382777617</v>
+        <v>150.3614253460855</v>
       </c>
       <c r="W21" t="n">
-        <v>150.3614253460855</v>
+        <v>73.64641241440943</v>
       </c>
       <c r="X21" t="n">
-        <v>73.64641241440921</v>
+        <v>6.075829024188742</v>
       </c>
       <c r="Y21" t="n">
-        <v>73.64641241440921</v>
+        <v>6.075829024188742</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6.07582902418876</v>
+        <v>27.43689794645713</v>
       </c>
       <c r="C22" t="n">
-        <v>6.07582902418876</v>
+        <v>27.43689794645713</v>
       </c>
       <c r="D22" t="n">
-        <v>6.07582902418876</v>
+        <v>6.075829024188742</v>
       </c>
       <c r="E22" t="n">
-        <v>6.07582902418876</v>
+        <v>6.075829024188742</v>
       </c>
       <c r="F22" t="n">
-        <v>6.07582902418876</v>
+        <v>6.075829024188742</v>
       </c>
       <c r="G22" t="n">
-        <v>6.07582902418876</v>
+        <v>6.075829024188742</v>
       </c>
       <c r="H22" t="n">
-        <v>6.07582902418876</v>
+        <v>6.075829024188742</v>
       </c>
       <c r="I22" t="n">
-        <v>6.07582902418876</v>
+        <v>6.075829024188742</v>
       </c>
       <c r="J22" t="n">
-        <v>6.07582902418876</v>
+        <v>6.075829024188742</v>
       </c>
       <c r="K22" t="n">
-        <v>6.07582902418876</v>
+        <v>6.075829024188742</v>
       </c>
       <c r="L22" t="n">
-        <v>10.95106657773219</v>
+        <v>10.95106657773212</v>
       </c>
       <c r="M22" t="n">
-        <v>17.41092563994137</v>
+        <v>17.41092563994125</v>
       </c>
       <c r="N22" t="n">
-        <v>26.8994816840551</v>
+        <v>26.89948168405494</v>
       </c>
       <c r="O22" t="n">
-        <v>27.43689794645733</v>
+        <v>27.43689794645713</v>
       </c>
       <c r="P22" t="n">
-        <v>27.43689794645733</v>
+        <v>27.43689794645713</v>
       </c>
       <c r="Q22" t="n">
-        <v>27.43689794645733</v>
+        <v>27.43689794645713</v>
       </c>
       <c r="R22" t="n">
-        <v>27.43689794645733</v>
+        <v>27.43689794645713</v>
       </c>
       <c r="S22" t="n">
-        <v>27.43689794645733</v>
+        <v>27.43689794645713</v>
       </c>
       <c r="T22" t="n">
-        <v>27.43689794645733</v>
+        <v>27.43689794645713</v>
       </c>
       <c r="U22" t="n">
-        <v>27.43689794645733</v>
+        <v>27.43689794645713</v>
       </c>
       <c r="V22" t="n">
-        <v>27.43689794645733</v>
+        <v>27.43689794645713</v>
       </c>
       <c r="W22" t="n">
-        <v>6.07582902418876</v>
+        <v>27.43689794645713</v>
       </c>
       <c r="X22" t="n">
-        <v>6.07582902418876</v>
+        <v>27.43689794645713</v>
       </c>
       <c r="Y22" t="n">
-        <v>6.07582902418876</v>
+        <v>27.43689794645713</v>
       </c>
     </row>
     <row r="23">
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>461.1131255556978</v>
+        <v>553.1645291158254</v>
       </c>
       <c r="C23" t="n">
-        <v>461.1131255556978</v>
+        <v>331.3902286369404</v>
       </c>
       <c r="D23" t="n">
-        <v>461.1131255556978</v>
+        <v>109.6159281580555</v>
       </c>
       <c r="E23" t="n">
-        <v>461.1131255556978</v>
+        <v>49.78853514722242</v>
       </c>
       <c r="F23" t="n">
-        <v>461.1131255556978</v>
+        <v>49.78853514722242</v>
       </c>
       <c r="G23" t="n">
-        <v>239.3388250768127</v>
+        <v>49.78853514722242</v>
       </c>
       <c r="H23" t="n">
-        <v>17.56452459792769</v>
+        <v>49.78853514722242</v>
       </c>
       <c r="I23" t="n">
         <v>17.56452459792769</v>
       </c>
       <c r="J23" t="n">
-        <v>61.76566646422704</v>
+        <v>61.765666464227</v>
       </c>
       <c r="K23" t="n">
         <v>148.5608200474251</v>
@@ -6001,40 +6001,40 @@
         <v>420.4501281543857</v>
       </c>
       <c r="N23" t="n">
-        <v>574.0010487547427</v>
+        <v>574.0010487547426</v>
       </c>
       <c r="O23" t="n">
-        <v>713.5940480809667</v>
+        <v>713.5940480809666</v>
       </c>
       <c r="P23" t="n">
-        <v>818.7605380598412</v>
+        <v>818.7605380598411</v>
       </c>
       <c r="Q23" t="n">
-        <v>878.2262298963847</v>
+        <v>878.2262298963846</v>
       </c>
       <c r="R23" t="n">
-        <v>878.2262298963847</v>
+        <v>878.2262298963844</v>
       </c>
       <c r="S23" t="n">
-        <v>878.2262298963847</v>
+        <v>774.9388295947105</v>
       </c>
       <c r="T23" t="n">
-        <v>682.8874260345829</v>
+        <v>774.9388295947105</v>
       </c>
       <c r="U23" t="n">
-        <v>682.8874260345829</v>
+        <v>553.1645291158254</v>
       </c>
       <c r="V23" t="n">
-        <v>682.8874260345829</v>
+        <v>553.1645291158254</v>
       </c>
       <c r="W23" t="n">
-        <v>682.8874260345829</v>
+        <v>553.1645291158254</v>
       </c>
       <c r="X23" t="n">
-        <v>682.8874260345829</v>
+        <v>553.1645291158254</v>
       </c>
       <c r="Y23" t="n">
-        <v>461.1131255556978</v>
+        <v>553.1645291158254</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>268.4567536295896</v>
+        <v>190.0165410718992</v>
       </c>
       <c r="C24" t="n">
-        <v>134.4616823785353</v>
+        <v>190.0165410718992</v>
       </c>
       <c r="D24" t="n">
-        <v>17.56452459792769</v>
+        <v>190.0165410718992</v>
       </c>
       <c r="E24" t="n">
-        <v>17.56452459792769</v>
+        <v>190.0165410718992</v>
       </c>
       <c r="F24" t="n">
-        <v>17.56452459792769</v>
+        <v>81.05666125440382</v>
       </c>
       <c r="G24" t="n">
-        <v>17.56452459792769</v>
+        <v>81.05666125440382</v>
       </c>
       <c r="H24" t="n">
         <v>17.56452459792769</v>
@@ -6098,22 +6098,22 @@
         <v>715.3219541700623</v>
       </c>
       <c r="T24" t="n">
-        <v>715.3219541700623</v>
+        <v>616.9612363425367</v>
       </c>
       <c r="U24" t="n">
-        <v>518.0205648090155</v>
+        <v>616.9612363425367</v>
       </c>
       <c r="V24" t="n">
-        <v>304.3090378020493</v>
+        <v>403.2497093355705</v>
       </c>
       <c r="W24" t="n">
-        <v>304.3090378020493</v>
+        <v>190.0165410718992</v>
       </c>
       <c r="X24" t="n">
-        <v>304.3090378020493</v>
+        <v>190.0165410718992</v>
       </c>
       <c r="Y24" t="n">
-        <v>304.3090378020493</v>
+        <v>190.0165410718992</v>
       </c>
     </row>
     <row r="25">
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>210.7171855514427</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="C25" t="n">
-        <v>210.7171855514427</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="D25" t="n">
-        <v>210.7171855514427</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="E25" t="n">
-        <v>182.1956504873364</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="F25" t="n">
         <v>17.56452459792769</v>
@@ -6177,22 +6177,22 @@
         <v>210.7171855514427</v>
       </c>
       <c r="T25" t="n">
-        <v>210.7171855514427</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="U25" t="n">
-        <v>210.7171855514427</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="V25" t="n">
-        <v>210.7171855514427</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="W25" t="n">
-        <v>210.7171855514427</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="X25" t="n">
-        <v>210.7171855514427</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="Y25" t="n">
-        <v>210.7171855514427</v>
+        <v>17.56452459792769</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>682.8874260345826</v>
+        <v>662.1657606273682</v>
       </c>
       <c r="C26" t="n">
-        <v>682.8874260345826</v>
+        <v>440.3914601484832</v>
       </c>
       <c r="D26" t="n">
-        <v>461.1131255556976</v>
+        <v>440.3914601484832</v>
       </c>
       <c r="E26" t="n">
         <v>239.3388250768127</v>
       </c>
       <c r="F26" t="n">
-        <v>17.56452459792769</v>
+        <v>239.3388250768127</v>
       </c>
       <c r="G26" t="n">
         <v>17.56452459792769</v>
@@ -6256,22 +6256,22 @@
         <v>878.2262298963844</v>
       </c>
       <c r="T26" t="n">
-        <v>878.2262298963844</v>
+        <v>662.1657606273682</v>
       </c>
       <c r="U26" t="n">
-        <v>878.2262298963844</v>
+        <v>662.1657606273682</v>
       </c>
       <c r="V26" t="n">
-        <v>878.2262298963844</v>
+        <v>662.1657606273682</v>
       </c>
       <c r="W26" t="n">
-        <v>878.2262298963844</v>
+        <v>662.1657606273682</v>
       </c>
       <c r="X26" t="n">
-        <v>878.2262298963844</v>
+        <v>662.1657606273682</v>
       </c>
       <c r="Y26" t="n">
-        <v>878.2262298963844</v>
+        <v>662.1657606273682</v>
       </c>
     </row>
     <row r="27">
@@ -6281,13 +6281,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>134.4616823785353</v>
+        <v>388.9495696372616</v>
       </c>
       <c r="C27" t="n">
-        <v>134.4616823785353</v>
+        <v>254.9544983862073</v>
       </c>
       <c r="D27" t="n">
-        <v>17.56452459792769</v>
+        <v>138.0573406055997</v>
       </c>
       <c r="E27" t="n">
         <v>17.56452459792769</v>
@@ -6341,16 +6341,16 @@
         <v>518.0205648090155</v>
       </c>
       <c r="V27" t="n">
-        <v>304.3090378020493</v>
+        <v>388.9495696372616</v>
       </c>
       <c r="W27" t="n">
-        <v>293.8636420147052</v>
+        <v>388.9495696372616</v>
       </c>
       <c r="X27" t="n">
-        <v>293.8636420147052</v>
+        <v>388.9495696372616</v>
       </c>
       <c r="Y27" t="n">
-        <v>134.4616823785353</v>
+        <v>388.9495696372616</v>
       </c>
     </row>
     <row r="28">
@@ -6360,10 +6360,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>17.56452459792769</v>
+        <v>177.0591692750177</v>
       </c>
       <c r="C28" t="n">
-        <v>17.56452459792769</v>
+        <v>177.0591692750177</v>
       </c>
       <c r="D28" t="n">
         <v>17.56452459792769</v>
@@ -6414,22 +6414,22 @@
         <v>210.7171855514427</v>
       </c>
       <c r="T28" t="n">
-        <v>17.56452459792769</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="U28" t="n">
-        <v>17.56452459792769</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="V28" t="n">
-        <v>17.56452459792769</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="W28" t="n">
-        <v>17.56452459792769</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="X28" t="n">
-        <v>17.56452459792769</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="Y28" t="n">
-        <v>17.56452459792769</v>
+        <v>177.0591692750177</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>878.2262298963844</v>
+      </c>
+      <c r="C29" t="n">
+        <v>878.2262298963844</v>
+      </c>
+      <c r="D29" t="n">
+        <v>878.2262298963844</v>
+      </c>
+      <c r="E29" t="n">
+        <v>656.4519294174995</v>
+      </c>
+      <c r="F29" t="n">
         <v>434.6776289386145</v>
       </c>
-      <c r="C29" t="n">
-        <v>434.6776289386145</v>
-      </c>
-      <c r="D29" t="n">
-        <v>212.9033284597296</v>
-      </c>
-      <c r="E29" t="n">
-        <v>17.56452459792769</v>
-      </c>
-      <c r="F29" t="n">
-        <v>17.56452459792769</v>
-      </c>
       <c r="G29" t="n">
-        <v>17.56452459792769</v>
+        <v>239.3388250768127</v>
       </c>
       <c r="H29" t="n">
         <v>17.56452459792769</v>
@@ -6472,7 +6472,7 @@
         <v>271.1830965723306</v>
       </c>
       <c r="M29" t="n">
-        <v>420.4501281543856</v>
+        <v>420.4501281543855</v>
       </c>
       <c r="N29" t="n">
         <v>574.0010487547424</v>
@@ -6508,7 +6508,7 @@
         <v>878.2262298963844</v>
       </c>
       <c r="Y29" t="n">
-        <v>656.4519294174995</v>
+        <v>878.2262298963844</v>
       </c>
     </row>
     <row r="30">
@@ -6518,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>17.56452459792769</v>
+        <v>260.5194756664774</v>
       </c>
       <c r="C30" t="n">
-        <v>17.56452459792769</v>
+        <v>126.5244044154231</v>
       </c>
       <c r="D30" t="n">
-        <v>17.56452459792769</v>
+        <v>126.5244044154231</v>
       </c>
       <c r="E30" t="n">
-        <v>17.56452459792769</v>
+        <v>126.5244044154231</v>
       </c>
       <c r="F30" t="n">
         <v>17.56452459792769</v>
@@ -6566,28 +6566,28 @@
         <v>715.3219541700623</v>
       </c>
       <c r="R30" t="n">
-        <v>702.3665110839293</v>
+        <v>715.3219541700623</v>
       </c>
       <c r="S30" t="n">
-        <v>608.329838238913</v>
+        <v>715.3219541700623</v>
       </c>
       <c r="T30" t="n">
-        <v>452.0158650375812</v>
+        <v>559.0079809687305</v>
       </c>
       <c r="U30" t="n">
-        <v>254.7144756765343</v>
+        <v>361.7065916076837</v>
       </c>
       <c r="V30" t="n">
-        <v>41.00294866956813</v>
+        <v>361.7065916076837</v>
       </c>
       <c r="W30" t="n">
-        <v>17.56452459792769</v>
+        <v>361.7065916076837</v>
       </c>
       <c r="X30" t="n">
-        <v>17.56452459792769</v>
+        <v>361.7065916076837</v>
       </c>
       <c r="Y30" t="n">
-        <v>17.56452459792769</v>
+        <v>260.5194756664774</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>23.01747915739833</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="C31" t="n">
-        <v>23.01747915739833</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="D31" t="n">
-        <v>23.01747915739833</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="E31" t="n">
-        <v>23.01747915739833</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="F31" t="n">
-        <v>23.01747915739833</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="G31" t="n">
-        <v>23.01747915739833</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="H31" t="n">
-        <v>23.01747915739833</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="I31" t="n">
-        <v>23.01747915739833</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="J31" t="n">
         <v>17.56452459792769</v>
@@ -6651,22 +6651,22 @@
         <v>210.7171855514427</v>
       </c>
       <c r="T31" t="n">
-        <v>210.7171855514427</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="U31" t="n">
-        <v>210.7171855514427</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="V31" t="n">
-        <v>210.7171855514427</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="W31" t="n">
-        <v>210.7171855514427</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="X31" t="n">
-        <v>210.7171855514427</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="Y31" t="n">
-        <v>210.7171855514427</v>
+        <v>17.56452459792769</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>17.56452459792769</v>
+        <v>461.1131255556976</v>
       </c>
       <c r="C32" t="n">
-        <v>17.56452459792769</v>
+        <v>461.1131255556976</v>
       </c>
       <c r="D32" t="n">
-        <v>17.56452459792769</v>
+        <v>461.1131255556976</v>
       </c>
       <c r="E32" t="n">
-        <v>17.56452459792769</v>
+        <v>239.3388250768127</v>
       </c>
       <c r="F32" t="n">
         <v>17.56452459792769</v>
@@ -6706,7 +6706,7 @@
         <v>148.5608200474251</v>
       </c>
       <c r="L32" t="n">
-        <v>271.1830965723305</v>
+        <v>271.1830965723306</v>
       </c>
       <c r="M32" t="n">
         <v>420.4501281543855</v>
@@ -6736,16 +6736,16 @@
         <v>878.2262298963844</v>
       </c>
       <c r="V32" t="n">
+        <v>878.2262298963844</v>
+      </c>
+      <c r="W32" t="n">
+        <v>878.2262298963844</v>
+      </c>
+      <c r="X32" t="n">
         <v>682.8874260345826</v>
       </c>
-      <c r="W32" t="n">
-        <v>461.1131255556976</v>
-      </c>
-      <c r="X32" t="n">
-        <v>239.3388250768127</v>
-      </c>
       <c r="Y32" t="n">
-        <v>239.3388250768127</v>
+        <v>682.8874260345826</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>382.6819991076233</v>
+        <v>123.8034304724263</v>
       </c>
       <c r="C33" t="n">
-        <v>248.686927856569</v>
+        <v>123.8034304724263</v>
       </c>
       <c r="D33" t="n">
-        <v>248.686927856569</v>
+        <v>123.8034304724263</v>
       </c>
       <c r="E33" t="n">
-        <v>248.686927856569</v>
+        <v>123.8034304724263</v>
       </c>
       <c r="F33" t="n">
-        <v>202.1453493203315</v>
+        <v>123.8034304724263</v>
       </c>
       <c r="G33" t="n">
-        <v>95.90644344583291</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="H33" t="n">
-        <v>32.41430678935676</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="I33" t="n">
         <v>17.56452459792769</v>
@@ -6818,13 +6818,13 @@
         <v>559.0079809687305</v>
       </c>
       <c r="W33" t="n">
-        <v>559.0079809687305</v>
+        <v>345.7748127050593</v>
       </c>
       <c r="X33" t="n">
-        <v>382.6819991076233</v>
+        <v>169.4488308439521</v>
       </c>
       <c r="Y33" t="n">
-        <v>382.6819991076233</v>
+        <v>123.8034304724263</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>878.2262298963844</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="C34" t="n">
-        <v>851.6941734615194</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="D34" t="n">
-        <v>851.6941734615194</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="E34" t="n">
-        <v>851.6941734615194</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="F34" t="n">
-        <v>851.6941734615194</v>
+        <v>184.1851291165778</v>
       </c>
       <c r="G34" t="n">
-        <v>685.0735689428693</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="H34" t="n">
-        <v>685.0735689428693</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="I34" t="n">
-        <v>685.0735689428693</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="J34" t="n">
-        <v>685.0735689428693</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="K34" t="n">
-        <v>705.0593722317668</v>
+        <v>37.55032788682519</v>
       </c>
       <c r="L34" t="n">
-        <v>742.7461676397088</v>
+        <v>75.23712329476716</v>
       </c>
       <c r="M34" t="n">
-        <v>783.8012139394987</v>
+        <v>116.292169594557</v>
       </c>
       <c r="N34" t="n">
-        <v>827.0623609927289</v>
+        <v>159.5533166477872</v>
       </c>
       <c r="O34" t="n">
-        <v>858.794231304305</v>
+        <v>191.2851869593632</v>
       </c>
       <c r="P34" t="n">
-        <v>878.2262298963844</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="Q34" t="n">
-        <v>878.2262298963844</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="R34" t="n">
-        <v>878.2262298963844</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="S34" t="n">
-        <v>878.2262298963844</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="T34" t="n">
-        <v>878.2262298963844</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="U34" t="n">
-        <v>878.2262298963844</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="V34" t="n">
-        <v>878.2262298963844</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="W34" t="n">
-        <v>878.2262298963844</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="X34" t="n">
-        <v>878.2262298963844</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="Y34" t="n">
-        <v>878.2262298963844</v>
+        <v>210.7171855514427</v>
       </c>
     </row>
     <row r="35">
@@ -6937,25 +6937,25 @@
         <v>17.56452459792769</v>
       </c>
       <c r="J35" t="n">
-        <v>61.76566646422691</v>
+        <v>61.765666464227</v>
       </c>
       <c r="K35" t="n">
         <v>148.5608200474251</v>
       </c>
       <c r="L35" t="n">
-        <v>271.1830965723306</v>
+        <v>271.1830965723307</v>
       </c>
       <c r="M35" t="n">
-        <v>420.4501281543855</v>
+        <v>420.4501281543857</v>
       </c>
       <c r="N35" t="n">
-        <v>574.0010487547423</v>
+        <v>574.0010487547426</v>
       </c>
       <c r="O35" t="n">
-        <v>713.5940480809663</v>
+        <v>713.5940480809666</v>
       </c>
       <c r="P35" t="n">
-        <v>818.7605380598409</v>
+        <v>818.7605380598411</v>
       </c>
       <c r="Q35" t="n">
         <v>878.2262298963844</v>
@@ -6967,22 +6967,22 @@
         <v>878.2262298963844</v>
       </c>
       <c r="T35" t="n">
-        <v>878.2262298963844</v>
+        <v>662.1657606273682</v>
       </c>
       <c r="U35" t="n">
-        <v>878.2262298963844</v>
+        <v>440.3914601484832</v>
       </c>
       <c r="V35" t="n">
-        <v>656.4519294174995</v>
+        <v>440.3914601484832</v>
       </c>
       <c r="W35" t="n">
-        <v>434.6776289386145</v>
+        <v>440.3914601484832</v>
       </c>
       <c r="X35" t="n">
-        <v>212.9033284597296</v>
+        <v>218.6171596695982</v>
       </c>
       <c r="Y35" t="n">
-        <v>49.78853514722242</v>
+        <v>218.6171596695982</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>17.56452459792769</v>
+        <v>288.3772588994249</v>
       </c>
       <c r="C36" t="n">
-        <v>17.56452459792769</v>
+        <v>288.3772588994249</v>
       </c>
       <c r="D36" t="n">
-        <v>17.56452459792769</v>
+        <v>171.4801011188173</v>
       </c>
       <c r="E36" t="n">
-        <v>17.56452459792769</v>
+        <v>50.98728511114527</v>
       </c>
       <c r="F36" t="n">
-        <v>17.56452459792769</v>
+        <v>50.98728511114527</v>
       </c>
       <c r="G36" t="n">
         <v>17.56452459792769</v>
@@ -7052,16 +7052,16 @@
         <v>715.3219541700623</v>
       </c>
       <c r="V36" t="n">
-        <v>706.8286669944628</v>
+        <v>501.6104271630961</v>
       </c>
       <c r="W36" t="n">
-        <v>493.5954987307915</v>
+        <v>288.3772588994249</v>
       </c>
       <c r="X36" t="n">
-        <v>317.2695168696843</v>
+        <v>288.3772588994249</v>
       </c>
       <c r="Y36" t="n">
-        <v>157.8675572335143</v>
+        <v>288.3772588994249</v>
       </c>
     </row>
     <row r="37">
@@ -7071,10 +7071,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>35.3008794993624</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="C37" t="n">
-        <v>35.3008794993624</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="D37" t="n">
         <v>17.56452459792769</v>
@@ -7122,25 +7122,25 @@
         <v>210.7171855514427</v>
       </c>
       <c r="S37" t="n">
-        <v>35.3008794993624</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="T37" t="n">
-        <v>35.3008794993624</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="U37" t="n">
-        <v>35.3008794993624</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="V37" t="n">
-        <v>35.3008794993624</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="W37" t="n">
-        <v>35.3008794993624</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="X37" t="n">
-        <v>35.3008794993624</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="Y37" t="n">
-        <v>35.3008794993624</v>
+        <v>17.56452459792769</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>212.9033284597296</v>
+        <v>434.6776289386145</v>
       </c>
       <c r="C38" t="n">
         <v>212.9033284597296</v>
@@ -7159,7 +7159,7 @@
         <v>212.9033284597296</v>
       </c>
       <c r="E38" t="n">
-        <v>17.56452459792769</v>
+        <v>212.9033284597296</v>
       </c>
       <c r="F38" t="n">
         <v>17.56452459792769</v>
@@ -7174,7 +7174,7 @@
         <v>17.56452459792769</v>
       </c>
       <c r="J38" t="n">
-        <v>61.765666464227</v>
+        <v>61.76566646422697</v>
       </c>
       <c r="K38" t="n">
         <v>148.5608200474251</v>
@@ -7183,43 +7183,43 @@
         <v>271.1830965723307</v>
       </c>
       <c r="M38" t="n">
-        <v>420.4501281543857</v>
+        <v>420.4501281543856</v>
       </c>
       <c r="N38" t="n">
-        <v>574.0010487547427</v>
+        <v>574.0010487547424</v>
       </c>
       <c r="O38" t="n">
-        <v>713.5940480809666</v>
+        <v>713.5940480809664</v>
       </c>
       <c r="P38" t="n">
-        <v>818.7605380598412</v>
+        <v>818.760538059841</v>
       </c>
       <c r="Q38" t="n">
-        <v>878.2262298963847</v>
+        <v>878.2262298963844</v>
       </c>
       <c r="R38" t="n">
-        <v>878.2262298963847</v>
+        <v>878.2262298963844</v>
       </c>
       <c r="S38" t="n">
-        <v>878.2262298963847</v>
+        <v>878.2262298963844</v>
       </c>
       <c r="T38" t="n">
-        <v>878.2262298963847</v>
+        <v>878.2262298963844</v>
       </c>
       <c r="U38" t="n">
-        <v>878.2262298963847</v>
+        <v>878.2262298963844</v>
       </c>
       <c r="V38" t="n">
-        <v>656.4519294174996</v>
+        <v>878.2262298963844</v>
       </c>
       <c r="W38" t="n">
-        <v>434.6776289386146</v>
+        <v>878.2262298963844</v>
       </c>
       <c r="X38" t="n">
-        <v>212.9033284597296</v>
+        <v>878.2262298963844</v>
       </c>
       <c r="Y38" t="n">
-        <v>212.9033284597296</v>
+        <v>656.4519294174995</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>361.7065916076837</v>
+        <v>169.4488308439521</v>
       </c>
       <c r="C39" t="n">
-        <v>254.9544983862073</v>
+        <v>35.45375959289777</v>
       </c>
       <c r="D39" t="n">
-        <v>138.0573406055997</v>
+        <v>35.45375959289777</v>
       </c>
       <c r="E39" t="n">
-        <v>17.56452459792769</v>
+        <v>35.45375959289777</v>
       </c>
       <c r="F39" t="n">
-        <v>17.56452459792769</v>
+        <v>35.45375959289777</v>
       </c>
       <c r="G39" t="n">
         <v>17.56452459792769</v>
@@ -7286,19 +7286,19 @@
         <v>559.0079809687305</v>
       </c>
       <c r="U39" t="n">
-        <v>361.7065916076837</v>
+        <v>559.0079809687305</v>
       </c>
       <c r="V39" t="n">
-        <v>361.7065916076837</v>
+        <v>559.0079809687305</v>
       </c>
       <c r="W39" t="n">
-        <v>361.7065916076837</v>
+        <v>345.7748127050593</v>
       </c>
       <c r="X39" t="n">
-        <v>361.7065916076837</v>
+        <v>169.4488308439521</v>
       </c>
       <c r="Y39" t="n">
-        <v>361.7065916076837</v>
+        <v>169.4488308439521</v>
       </c>
     </row>
     <row r="40">
@@ -7359,25 +7359,25 @@
         <v>210.7171855514427</v>
       </c>
       <c r="S40" t="n">
-        <v>210.7171855514427</v>
+        <v>35.3008794993624</v>
       </c>
       <c r="T40" t="n">
-        <v>210.7171855514427</v>
+        <v>35.3008794993624</v>
       </c>
       <c r="U40" t="n">
-        <v>17.56452459792769</v>
+        <v>35.3008794993624</v>
       </c>
       <c r="V40" t="n">
-        <v>17.56452459792769</v>
+        <v>35.3008794993624</v>
       </c>
       <c r="W40" t="n">
-        <v>17.56452459792769</v>
+        <v>35.3008794993624</v>
       </c>
       <c r="X40" t="n">
-        <v>17.56452459792769</v>
+        <v>35.3008794993624</v>
       </c>
       <c r="Y40" t="n">
-        <v>17.56452459792769</v>
+        <v>35.3008794993624</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>682.8874260345829</v>
+        <v>656.4519294174997</v>
       </c>
       <c r="C41" t="n">
-        <v>682.8874260345829</v>
+        <v>461.1131255556979</v>
       </c>
       <c r="D41" t="n">
-        <v>682.8874260345829</v>
+        <v>239.3388250768128</v>
       </c>
       <c r="E41" t="n">
-        <v>682.8874260345829</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="F41" t="n">
-        <v>461.1131255556978</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="G41" t="n">
-        <v>239.3388250768128</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="H41" t="n">
         <v>17.5645245979277</v>
@@ -7411,52 +7411,52 @@
         <v>17.5645245979277</v>
       </c>
       <c r="J41" t="n">
-        <v>61.76566646422691</v>
+        <v>61.76566646422702</v>
       </c>
       <c r="K41" t="n">
-        <v>148.560820047425</v>
+        <v>148.5608200474253</v>
       </c>
       <c r="L41" t="n">
-        <v>271.1830965723305</v>
+        <v>271.1830965723309</v>
       </c>
       <c r="M41" t="n">
-        <v>420.4501281543855</v>
+        <v>420.4501281543859</v>
       </c>
       <c r="N41" t="n">
-        <v>574.0010487547423</v>
+        <v>574.0010487547428</v>
       </c>
       <c r="O41" t="n">
-        <v>713.5940480809664</v>
+        <v>713.5940480809668</v>
       </c>
       <c r="P41" t="n">
-        <v>818.7605380598411</v>
+        <v>818.7605380598413</v>
       </c>
       <c r="Q41" t="n">
-        <v>878.2262298963847</v>
+        <v>878.2262298963848</v>
       </c>
       <c r="R41" t="n">
-        <v>878.2262298963848</v>
+        <v>878.2262298963849</v>
       </c>
       <c r="S41" t="n">
-        <v>878.2262298963848</v>
+        <v>878.2262298963849</v>
       </c>
       <c r="T41" t="n">
-        <v>878.2262298963848</v>
+        <v>878.2262298963849</v>
       </c>
       <c r="U41" t="n">
-        <v>878.2262298963848</v>
+        <v>878.2262298963849</v>
       </c>
       <c r="V41" t="n">
-        <v>878.2262298963848</v>
+        <v>878.2262298963849</v>
       </c>
       <c r="W41" t="n">
-        <v>682.8874260345829</v>
+        <v>878.2262298963849</v>
       </c>
       <c r="X41" t="n">
-        <v>682.8874260345829</v>
+        <v>878.2262298963849</v>
       </c>
       <c r="Y41" t="n">
-        <v>682.8874260345829</v>
+        <v>878.2262298963849</v>
       </c>
     </row>
     <row r="42">
@@ -7466,13 +7466,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>138.0573406055997</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="C42" t="n">
-        <v>138.0573406055997</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="D42" t="n">
-        <v>138.0573406055997</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="E42" t="n">
         <v>17.5645245979277</v>
@@ -7523,19 +7523,19 @@
         <v>715.3219541700623</v>
       </c>
       <c r="U42" t="n">
-        <v>715.3219541700623</v>
+        <v>518.0205648090155</v>
       </c>
       <c r="V42" t="n">
-        <v>501.6104271630961</v>
+        <v>304.3090378020493</v>
       </c>
       <c r="W42" t="n">
-        <v>473.7852821028769</v>
+        <v>91.07586953837802</v>
       </c>
       <c r="X42" t="n">
-        <v>297.4593002417697</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="Y42" t="n">
-        <v>138.0573406055997</v>
+        <v>17.5645245979277</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>685.0735689428697</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="C43" t="n">
-        <v>685.0735689428697</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="D43" t="n">
-        <v>685.0735689428697</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="E43" t="n">
-        <v>685.0735689428697</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="F43" t="n">
-        <v>685.0735689428697</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="G43" t="n">
-        <v>685.0735689428697</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="H43" t="n">
-        <v>685.0735689428697</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="I43" t="n">
-        <v>685.0735689428697</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="J43" t="n">
-        <v>685.0735689428697</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="K43" t="n">
-        <v>705.0593722317672</v>
+        <v>37.55032788682519</v>
       </c>
       <c r="L43" t="n">
-        <v>742.7461676397091</v>
+        <v>75.23712329476716</v>
       </c>
       <c r="M43" t="n">
-        <v>783.801213939499</v>
+        <v>116.292169594557</v>
       </c>
       <c r="N43" t="n">
-        <v>827.0623609927293</v>
+        <v>159.5533166477872</v>
       </c>
       <c r="O43" t="n">
-        <v>858.7942313043053</v>
+        <v>191.2851869593632</v>
       </c>
       <c r="P43" t="n">
-        <v>878.2262298963848</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="Q43" t="n">
-        <v>878.2262298963848</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="R43" t="n">
-        <v>878.2262298963848</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="S43" t="n">
-        <v>878.2262298963848</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="T43" t="n">
-        <v>878.2262298963848</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="U43" t="n">
-        <v>878.2262298963848</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="V43" t="n">
-        <v>685.0735689428697</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="W43" t="n">
-        <v>685.0735689428697</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="X43" t="n">
-        <v>685.0735689428697</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="Y43" t="n">
-        <v>685.0735689428697</v>
+        <v>17.5645245979277</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>656.4519294175004</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="C44" t="n">
-        <v>434.6776289386151</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="D44" t="n">
-        <v>239.338825076813</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="E44" t="n">
-        <v>239.338825076813</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="F44" t="n">
-        <v>239.338825076813</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="G44" t="n">
-        <v>17.56452459792771</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="H44" t="n">
-        <v>17.56452459792771</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="I44" t="n">
-        <v>17.56452459792771</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="J44" t="n">
-        <v>61.76566646422715</v>
+        <v>61.765666464227</v>
       </c>
       <c r="K44" t="n">
-        <v>148.5608200474254</v>
+        <v>148.5608200474251</v>
       </c>
       <c r="L44" t="n">
-        <v>271.183096572331</v>
+        <v>271.1830965723307</v>
       </c>
       <c r="M44" t="n">
-        <v>420.4501281543862</v>
+        <v>420.4501281543857</v>
       </c>
       <c r="N44" t="n">
-        <v>574.0010487547434</v>
+        <v>574.0010487547426</v>
       </c>
       <c r="O44" t="n">
-        <v>713.5940480809676</v>
+        <v>713.5940480809666</v>
       </c>
       <c r="P44" t="n">
-        <v>818.7605380598422</v>
+        <v>818.7605380598411</v>
       </c>
       <c r="Q44" t="n">
-        <v>878.2262298963858</v>
+        <v>878.2262298963846</v>
       </c>
       <c r="R44" t="n">
-        <v>878.2262298963858</v>
+        <v>878.2262298963844</v>
       </c>
       <c r="S44" t="n">
-        <v>878.2262298963858</v>
+        <v>878.2262298963844</v>
       </c>
       <c r="T44" t="n">
-        <v>878.2262298963858</v>
+        <v>878.2262298963844</v>
       </c>
       <c r="U44" t="n">
-        <v>878.2262298963858</v>
+        <v>878.2262298963844</v>
       </c>
       <c r="V44" t="n">
-        <v>878.2262298963858</v>
+        <v>656.4519294174995</v>
       </c>
       <c r="W44" t="n">
-        <v>878.2262298963858</v>
+        <v>461.1131255556976</v>
       </c>
       <c r="X44" t="n">
-        <v>878.2262298963858</v>
+        <v>461.1131255556976</v>
       </c>
       <c r="Y44" t="n">
-        <v>878.2262298963858</v>
+        <v>239.3388250768127</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>17.56452459792771</v>
+        <v>144.9070781658793</v>
       </c>
       <c r="C45" t="n">
-        <v>17.56452459792771</v>
+        <v>144.9070781658793</v>
       </c>
       <c r="D45" t="n">
-        <v>17.56452459792771</v>
+        <v>28.00992038527171</v>
       </c>
       <c r="E45" t="n">
-        <v>17.56452459792771</v>
+        <v>28.00992038527171</v>
       </c>
       <c r="F45" t="n">
-        <v>17.56452459792771</v>
+        <v>28.00992038527171</v>
       </c>
       <c r="G45" t="n">
-        <v>17.56452459792771</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="H45" t="n">
-        <v>17.56452459792771</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="I45" t="n">
-        <v>17.56452459792771</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="J45" t="n">
-        <v>36.26919386777748</v>
+        <v>36.2691938677774</v>
       </c>
       <c r="K45" t="n">
-        <v>99.89115689943323</v>
+        <v>99.89115689943307</v>
       </c>
       <c r="L45" t="n">
-        <v>204.1993668012283</v>
+        <v>204.1993668012281</v>
       </c>
       <c r="M45" t="n">
-        <v>333.7616594659747</v>
+        <v>333.7616594659743</v>
       </c>
       <c r="N45" t="n">
-        <v>472.5885816838006</v>
+        <v>472.5885816838001</v>
       </c>
       <c r="O45" t="n">
-        <v>590.5890764169</v>
+        <v>590.5890764168994</v>
       </c>
       <c r="P45" t="n">
-        <v>677.4649847190649</v>
+        <v>677.4649847190642</v>
       </c>
       <c r="Q45" t="n">
-        <v>715.3219541700631</v>
+        <v>715.3219541700623</v>
       </c>
       <c r="R45" t="n">
-        <v>715.3219541700631</v>
+        <v>715.3219541700623</v>
       </c>
       <c r="S45" t="n">
-        <v>641.8106092296121</v>
+        <v>715.3219541700623</v>
       </c>
       <c r="T45" t="n">
-        <v>641.8106092296121</v>
+        <v>715.3219541700623</v>
       </c>
       <c r="U45" t="n">
-        <v>444.5092198685651</v>
+        <v>518.0205648090155</v>
       </c>
       <c r="V45" t="n">
-        <v>230.797692861599</v>
+        <v>304.3090378020493</v>
       </c>
       <c r="W45" t="n">
-        <v>17.56452459792771</v>
+        <v>304.3090378020493</v>
       </c>
       <c r="X45" t="n">
-        <v>17.56452459792771</v>
+        <v>304.3090378020493</v>
       </c>
       <c r="Y45" t="n">
-        <v>17.56452459792771</v>
+        <v>144.9070781658793</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>17.56452459792771</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="C46" t="n">
-        <v>17.56452459792771</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="D46" t="n">
-        <v>17.56452459792771</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="E46" t="n">
-        <v>17.56452459792771</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="F46" t="n">
-        <v>17.56452459792771</v>
+        <v>184.1851291165778</v>
       </c>
       <c r="G46" t="n">
-        <v>17.56452459792771</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="H46" t="n">
-        <v>17.56452459792771</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="I46" t="n">
-        <v>17.56452459792771</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="J46" t="n">
-        <v>17.56452459792771</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="K46" t="n">
-        <v>37.55032788682527</v>
+        <v>37.55032788682519</v>
       </c>
       <c r="L46" t="n">
-        <v>75.23712329476731</v>
+        <v>75.23712329476716</v>
       </c>
       <c r="M46" t="n">
-        <v>116.2921695945572</v>
+        <v>116.292169594557</v>
       </c>
       <c r="N46" t="n">
-        <v>159.5533166477875</v>
+        <v>159.5533166477872</v>
       </c>
       <c r="O46" t="n">
-        <v>191.2851869593636</v>
+        <v>191.2851869593632</v>
       </c>
       <c r="P46" t="n">
-        <v>210.7171855514432</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="Q46" t="n">
-        <v>210.7171855514432</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="R46" t="n">
-        <v>210.7171855514432</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="S46" t="n">
-        <v>210.7171855514432</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="T46" t="n">
-        <v>210.7171855514432</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="U46" t="n">
-        <v>17.56452459792771</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="V46" t="n">
-        <v>17.56452459792771</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="W46" t="n">
-        <v>17.56452459792771</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="X46" t="n">
-        <v>17.56452459792771</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="Y46" t="n">
-        <v>17.56452459792771</v>
+        <v>210.7171855514427</v>
       </c>
     </row>
   </sheetData>
@@ -22576,7 +22576,7 @@
         <v>21.55405633213152</v>
       </c>
       <c r="L2" t="n">
-        <v>11.64353751452477</v>
+        <v>11.64353751452478</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -22670,7 +22670,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>20.40627785259141</v>
+        <v>20.40627785259142</v>
       </c>
       <c r="R3" t="n">
         <v>41.35075441487444</v>
@@ -22740,16 +22740,16 @@
         <v>18.90730960179207</v>
       </c>
       <c r="N4" t="n">
-        <v>15.2432936233067</v>
+        <v>15.24329362330671</v>
       </c>
       <c r="O4" t="n">
         <v>22.38954887144386</v>
       </c>
       <c r="P4" t="n">
-        <v>26.95620607407935</v>
+        <v>26.95620607407936</v>
       </c>
       <c r="Q4" t="n">
-        <v>41.40353443947922</v>
+        <v>41.40353443947923</v>
       </c>
       <c r="R4" t="n">
         <v>73.70428898346404</v>
@@ -22792,28 +22792,28 @@
         <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>409.4482695640179</v>
       </c>
       <c r="F5" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>404.1097092771328</v>
+        <v>403.9948574388665</v>
       </c>
       <c r="H5" t="n">
-        <v>302.3583183165892</v>
+        <v>301.182091927944</v>
       </c>
       <c r="I5" t="n">
-        <v>65.00561065159138</v>
+        <v>60.57778515682809</v>
       </c>
       <c r="J5" t="n">
-        <v>28.23084788503724</v>
+        <v>18.48294167697897</v>
       </c>
       <c r="K5" t="n">
-        <v>21.55405633213152</v>
+        <v>6.944471810258847</v>
       </c>
       <c r="L5" t="n">
-        <v>11.64353751452478</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -22822,25 +22822,25 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>3.673052520349231</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>17.24891115298081</v>
+        <v>0.7330732454824584</v>
       </c>
       <c r="Q5" t="n">
-        <v>32.66024662599554</v>
+        <v>20.2575401764107</v>
       </c>
       <c r="R5" t="n">
-        <v>53.93837241300997</v>
+        <v>46.72381062751163</v>
       </c>
       <c r="S5" t="n">
-        <v>121.8214482553398</v>
+        <v>99.03728414485995</v>
       </c>
       <c r="T5" t="n">
-        <v>217.6586885309231</v>
+        <v>196.9889467629267</v>
       </c>
       <c r="U5" t="n">
-        <v>254.4473834639679</v>
+        <v>234.2712174709211</v>
       </c>
       <c r="V5" t="n">
         <v>346.3391791168841</v>
@@ -22862,7 +22862,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>138.9000023092308</v>
+        <v>133.6990205529102</v>
       </c>
       <c r="C6" t="n">
         <v>132.6551205385437</v>
@@ -22877,19 +22877,19 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G6" t="n">
-        <v>105.6359452837665</v>
+        <v>105.5744941327544</v>
       </c>
       <c r="H6" t="n">
-        <v>67.29432707308776</v>
+        <v>66.70083832515573</v>
       </c>
       <c r="I6" t="n">
-        <v>30.51932592171037</v>
+        <v>28.40357357326966</v>
       </c>
       <c r="J6" t="n">
-        <v>24.51230971842843</v>
+        <v>18.70652356075183</v>
       </c>
       <c r="K6" t="n">
-        <v>9.923013275483001</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -22907,28 +22907,28 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>20.40627785259142</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>41.35075441487444</v>
+        <v>37.53539260028506</v>
       </c>
       <c r="S6" t="n">
-        <v>101.6299884061901</v>
+        <v>80.32158238241527</v>
       </c>
       <c r="T6" t="n">
-        <v>156.6026526013526</v>
+        <v>156.3549613391593</v>
       </c>
       <c r="U6" t="n">
-        <v>195.3586010245425</v>
+        <v>195.3545581856602</v>
       </c>
       <c r="V6" t="n">
         <v>211.5744117368965</v>
       </c>
       <c r="W6" t="n">
-        <v>211.1008365810345</v>
+        <v>190.933858735049</v>
       </c>
       <c r="X6" t="n">
-        <v>174.5627220424961</v>
+        <v>154.3957441965106</v>
       </c>
       <c r="Y6" t="n">
         <v>157.8079400398083</v>
@@ -22956,49 +22956,49 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>165.339567867843</v>
+        <v>165.2880492871125</v>
       </c>
       <c r="H7" t="n">
-        <v>145.9925054484174</v>
+        <v>145.5344584306495</v>
       </c>
       <c r="I7" t="n">
-        <v>108.0156742482211</v>
+        <v>106.4663700204336</v>
       </c>
       <c r="J7" t="n">
-        <v>34.58397146501913</v>
+        <v>30.94160780737001</v>
       </c>
       <c r="K7" t="n">
-        <v>24.56200045719904</v>
+        <v>18.57647807777823</v>
       </c>
       <c r="L7" t="n">
-        <v>19.19671421534549</v>
+        <v>11.53730631291606</v>
       </c>
       <c r="M7" t="n">
-        <v>18.90730960179207</v>
+        <v>10.83153789691311</v>
       </c>
       <c r="N7" t="n">
-        <v>15.24329362330671</v>
+        <v>7.359545719332466</v>
       </c>
       <c r="O7" t="n">
-        <v>22.38954887144386</v>
+        <v>15.1076316605491</v>
       </c>
       <c r="P7" t="n">
-        <v>26.95620607407936</v>
+        <v>20.72526791008761</v>
       </c>
       <c r="Q7" t="n">
-        <v>41.40353443947923</v>
+        <v>37.08955582939744</v>
       </c>
       <c r="R7" t="n">
-        <v>73.70428898346404</v>
+        <v>71.38782625352545</v>
       </c>
       <c r="S7" t="n">
-        <v>180.3745950736087</v>
+        <v>179.4767667166956</v>
       </c>
       <c r="T7" t="n">
-        <v>236.1349782779884</v>
+        <v>235.9148534330488</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9571667450169</v>
+        <v>279.9543566406135</v>
       </c>
       <c r="V7" t="n">
         <v>271.1468876098733</v>
@@ -23020,34 +23020,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>405.3704241035903</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>385.8563669338771</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>380.2523127618846</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>390.0298354822868</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>403.9948574388665</v>
+        <v>403.8959782144399</v>
       </c>
       <c r="H8" t="n">
-        <v>301.182091927944</v>
+        <v>300.1694450707848</v>
       </c>
       <c r="I8" t="n">
-        <v>60.57778515682809</v>
+        <v>56.76574385712079</v>
       </c>
       <c r="J8" t="n">
-        <v>18.48294167697897</v>
+        <v>10.09069110280006</v>
       </c>
       <c r="K8" t="n">
-        <v>6.944471810258847</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -23062,28 +23062,28 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0.7330732454824584</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>20.2575401764107</v>
+        <v>9.579696329610442</v>
       </c>
       <c r="R8" t="n">
-        <v>46.72381062751163</v>
+        <v>40.51258854612291</v>
       </c>
       <c r="S8" t="n">
-        <v>119.2042619908454</v>
+        <v>116.9510516642238</v>
       </c>
       <c r="T8" t="n">
-        <v>217.1559246089122</v>
+        <v>179.1937763418983</v>
       </c>
       <c r="U8" t="n">
-        <v>254.4381953169066</v>
+        <v>216.9009805168661</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>308.8098746547977</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>346.8668864859775</v>
       </c>
       <c r="X8" t="n">
         <v>396.636963852737</v>
@@ -23099,7 +23099,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>138.9000023092308</v>
+        <v>101.3706978471444</v>
       </c>
       <c r="C9" t="n">
         <v>132.6551205385437</v>
@@ -23111,19 +23111,19 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F9" t="n">
-        <v>87.70330317333497</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G9" t="n">
-        <v>86.35096576077676</v>
+        <v>105.5215890835718</v>
       </c>
       <c r="H9" t="n">
-        <v>46.53386047917024</v>
+        <v>66.18988692910271</v>
       </c>
       <c r="I9" t="n">
-        <v>28.40357357326966</v>
+        <v>26.58206201150026</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>13.70815661144294</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23144,19 +23144,19 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>12.56209233042347</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>37.53539260028506</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>100.4885602284008</v>
+        <v>99.50587214380288</v>
       </c>
       <c r="T9" t="n">
-        <v>156.3549613391593</v>
+        <v>156.1417168646031</v>
       </c>
       <c r="U9" t="n">
-        <v>195.3545581856602</v>
+        <v>164.8254097254052</v>
       </c>
       <c r="V9" t="n">
         <v>211.5744117368965</v>
@@ -23168,7 +23168,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y9" t="n">
-        <v>157.8079400398083</v>
+        <v>120.2786355777219</v>
       </c>
     </row>
     <row r="10">
@@ -23193,49 +23193,49 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>165.2880492871125</v>
+        <v>165.2436954710736</v>
       </c>
       <c r="H10" t="n">
-        <v>145.5344584306495</v>
+        <v>145.1401126844127</v>
       </c>
       <c r="I10" t="n">
-        <v>106.4663700204336</v>
+        <v>105.1325298071908</v>
       </c>
       <c r="J10" t="n">
-        <v>30.94160780737001</v>
+        <v>27.80579301341919</v>
       </c>
       <c r="K10" t="n">
-        <v>18.57647807777823</v>
+        <v>13.42337108707596</v>
       </c>
       <c r="L10" t="n">
-        <v>11.53730631291606</v>
+        <v>4.943103517458709</v>
       </c>
       <c r="M10" t="n">
-        <v>10.83153789691311</v>
+        <v>3.878875624559498</v>
       </c>
       <c r="N10" t="n">
-        <v>7.359545719332466</v>
+        <v>0.5722022158511422</v>
       </c>
       <c r="O10" t="n">
-        <v>15.1076316605491</v>
+        <v>8.838421371704122</v>
       </c>
       <c r="P10" t="n">
-        <v>20.72526791008761</v>
+        <v>15.36087546843636</v>
       </c>
       <c r="Q10" t="n">
-        <v>37.08955582939744</v>
+        <v>33.37552856090304</v>
       </c>
       <c r="R10" t="n">
-        <v>71.38782625352545</v>
+        <v>69.39351739781233</v>
       </c>
       <c r="S10" t="n">
-        <v>179.4767667166956</v>
+        <v>178.7038006680902</v>
       </c>
       <c r="T10" t="n">
-        <v>235.9148534330488</v>
+        <v>235.7253416736098</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9543566406135</v>
+        <v>279.9519373415568</v>
       </c>
       <c r="V10" t="n">
         <v>271.1468876098733</v>
@@ -23260,25 +23260,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>330.075481977503</v>
+        <v>330.0754819775032</v>
       </c>
       <c r="D11" t="n">
-        <v>324.4714278055105</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>334.2489505259127</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>336.8531374743217</v>
+        <v>327.8001522282805</v>
       </c>
       <c r="H11" t="n">
         <v>298.6541171146935</v>
       </c>
       <c r="I11" t="n">
-        <v>51.06139321367294</v>
+        <v>51.06139321367296</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,10 +23305,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>31.21809620174886</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>113.5793406133823</v>
+        <v>37.63147781102292</v>
       </c>
       <c r="T11" t="n">
         <v>216.0753719669003</v>
@@ -23323,7 +23323,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>360.9601824981677</v>
       </c>
       <c r="Y11" t="n">
         <v>396.9273063213908</v>
@@ -23357,10 +23357,10 @@
         <v>65.42529764590962</v>
       </c>
       <c r="I12" t="n">
-        <v>23.85634635615706</v>
+        <v>23.85634635615707</v>
       </c>
       <c r="J12" t="n">
-        <v>6.228584518226661</v>
+        <v>6.228584518226683</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,25 +23384,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>29.33532272952761</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>98.03537458961453</v>
       </c>
       <c r="T12" t="n">
-        <v>88.92773960290137</v>
+        <v>155.8226171592196</v>
       </c>
       <c r="U12" t="n">
-        <v>119.398006414096</v>
+        <v>119.3980064140961</v>
       </c>
       <c r="V12" t="n">
-        <v>135.626548934537</v>
+        <v>135.6265489345371</v>
       </c>
       <c r="W12" t="n">
-        <v>135.152973778675</v>
+        <v>135.1529737786751</v>
       </c>
       <c r="X12" t="n">
-        <v>174.5627220424961</v>
+        <v>137.0031672157056</v>
       </c>
       <c r="Y12" t="n">
         <v>157.8079400398083</v>
@@ -23427,7 +23427,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>141.8373563974689</v>
       </c>
       <c r="G13" t="n">
         <v>165.1773242806354</v>
@@ -23439,10 +23439,10 @@
         <v>103.1365670983785</v>
       </c>
       <c r="J13" t="n">
-        <v>7.678137123478624</v>
+        <v>23.11334984944295</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>5.712245507081576</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23457,10 +23457,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>7.333581672173025</v>
+        <v>7.333581672173047</v>
       </c>
       <c r="Q13" t="n">
-        <v>27.81784642339689</v>
+        <v>27.81784642339691</v>
       </c>
       <c r="R13" t="n">
         <v>66.40922732593032</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>330.1711050654852</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>330.0754819775032</v>
       </c>
       <c r="D14" t="n">
         <v>400.41929060787</v>
@@ -23515,7 +23515,7 @@
         <v>298.6541171146935</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>51.06139321367297</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,19 +23542,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>15.38461185910352</v>
+        <v>31.21809620174889</v>
       </c>
       <c r="S14" t="n">
-        <v>113.5793406133823</v>
+        <v>37.63147781102293</v>
       </c>
       <c r="T14" t="n">
-        <v>140.1275091645408</v>
+        <v>149.1804944105822</v>
       </c>
       <c r="U14" t="n">
-        <v>178.470585121889</v>
+        <v>254.4184479242485</v>
       </c>
       <c r="V14" t="n">
-        <v>270.3913163145246</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
         <v>379.9226978561831</v>
@@ -23585,7 +23585,7 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F15" t="n">
-        <v>107.8702810193205</v>
+        <v>47.20398798122901</v>
       </c>
       <c r="G15" t="n">
         <v>105.4424218008434</v>
@@ -23594,10 +23594,10 @@
         <v>65.42529764590962</v>
       </c>
       <c r="I15" t="n">
-        <v>23.85634635615706</v>
+        <v>23.85634635615707</v>
       </c>
       <c r="J15" t="n">
-        <v>6.228584518226661</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23621,22 +23621,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>29.33532272952761</v>
+        <v>29.33532272952763</v>
       </c>
       <c r="S15" t="n">
-        <v>98.03537458961453</v>
+        <v>98.03537458961455</v>
       </c>
       <c r="T15" t="n">
-        <v>79.87475435686012</v>
+        <v>155.8226171592196</v>
       </c>
       <c r="U15" t="n">
-        <v>119.398006414096</v>
+        <v>119.3980064140961</v>
       </c>
       <c r="V15" t="n">
-        <v>144.6795341805783</v>
+        <v>135.6265489345371</v>
       </c>
       <c r="W15" t="n">
-        <v>135.152973778675</v>
+        <v>135.1529737786751</v>
       </c>
       <c r="X15" t="n">
         <v>174.5627220424961</v>
@@ -23676,10 +23676,10 @@
         <v>103.1365670983785</v>
       </c>
       <c r="J16" t="n">
-        <v>23.11334984944294</v>
+        <v>23.11334984944296</v>
       </c>
       <c r="K16" t="n">
-        <v>5.712245507081562</v>
+        <v>5.71224550708159</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23694,22 +23694,22 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>7.333581672173025</v>
+        <v>7.333581672173054</v>
       </c>
       <c r="Q16" t="n">
-        <v>27.81784642339689</v>
+        <v>27.81784642339692</v>
       </c>
       <c r="R16" t="n">
         <v>66.40922732593032</v>
       </c>
       <c r="S16" t="n">
-        <v>156.3996735980452</v>
+        <v>177.547131831091</v>
       </c>
       <c r="T16" t="n">
         <v>235.4417556781015</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9483170948056</v>
+        <v>258.8008588617599</v>
       </c>
       <c r="V16" t="n">
         <v>271.1468876098733</v>
@@ -23743,16 +23743,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>340.8722451234898</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>327.8001522282804</v>
+        <v>403.7480150306399</v>
       </c>
       <c r="H17" t="n">
-        <v>262.9773357601241</v>
+        <v>222.7062543123341</v>
       </c>
       <c r="I17" t="n">
-        <v>51.06139321367294</v>
+        <v>51.06139321367297</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,16 +23785,16 @@
         <v>113.5793406133823</v>
       </c>
       <c r="T17" t="n">
-        <v>140.1275091645408</v>
+        <v>180.3985906123311</v>
       </c>
       <c r="U17" t="n">
-        <v>254.4184479242485</v>
+        <v>178.4705851218891</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>303.9748350538237</v>
       </c>
       <c r="X17" t="n">
         <v>396.636963852737</v>
@@ -23828,13 +23828,13 @@
         <v>105.4424218008434</v>
       </c>
       <c r="H18" t="n">
-        <v>22.3867664457484</v>
+        <v>65.42529764590962</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>23.85634635615707</v>
       </c>
       <c r="J18" t="n">
-        <v>6.228584518226661</v>
+        <v>6.228584518226697</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23858,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>29.33532272952761</v>
+        <v>29.33532272952763</v>
       </c>
       <c r="S18" t="n">
-        <v>98.03537458961453</v>
+        <v>98.03537458961455</v>
       </c>
       <c r="T18" t="n">
-        <v>155.8226171592196</v>
+        <v>79.87475435686024</v>
       </c>
       <c r="U18" t="n">
         <v>195.3458692164555</v>
       </c>
       <c r="V18" t="n">
-        <v>211.5744117368965</v>
+        <v>135.6265489345371</v>
       </c>
       <c r="W18" t="n">
-        <v>135.152973778675</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X18" t="n">
-        <v>98.61485924013661</v>
+        <v>107.667844486178</v>
       </c>
       <c r="Y18" t="n">
-        <v>81.86007723744876</v>
+        <v>81.86007723744889</v>
       </c>
     </row>
     <row r="19">
@@ -23895,7 +23895,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>136.7522399972734</v>
       </c>
       <c r="E19" t="n">
         <v>159.3017069803637</v>
@@ -23904,7 +23904,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>144.0298660475896</v>
+        <v>165.1773242806354</v>
       </c>
       <c r="H19" t="n">
         <v>144.5500124639718</v>
@@ -23913,10 +23913,10 @@
         <v>103.1365670983785</v>
       </c>
       <c r="J19" t="n">
-        <v>23.11334984944294</v>
+        <v>23.11334984944297</v>
       </c>
       <c r="K19" t="n">
-        <v>5.712245507081562</v>
+        <v>5.712245507081597</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -23931,16 +23931,16 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>7.333581672173025</v>
+        <v>7.333581672173061</v>
       </c>
       <c r="Q19" t="n">
-        <v>27.81784642339689</v>
+        <v>27.81784642339692</v>
       </c>
       <c r="R19" t="n">
-        <v>66.40922732593032</v>
+        <v>66.40922732593033</v>
       </c>
       <c r="S19" t="n">
-        <v>177.547131831091</v>
+        <v>177.5471318310911</v>
       </c>
       <c r="T19" t="n">
         <v>235.4417556781015</v>
@@ -23971,25 +23971,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>330.075481977503</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>364.7425092533009</v>
       </c>
       <c r="E20" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>416.8201079258493</v>
+        <v>340.87224512349</v>
       </c>
       <c r="G20" t="n">
         <v>403.7480150306399</v>
       </c>
       <c r="H20" t="n">
-        <v>231.7592395583753</v>
+        <v>298.6541171146935</v>
       </c>
       <c r="I20" t="n">
-        <v>51.06139321367294</v>
+        <v>51.06139321367297</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,19 +24016,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>31.21809620174886</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>113.5793406133823</v>
       </c>
       <c r="T20" t="n">
-        <v>140.1275091645408</v>
+        <v>216.0753719669003</v>
       </c>
       <c r="U20" t="n">
-        <v>254.4184479242485</v>
+        <v>178.4705851218892</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>270.3913163145248</v>
       </c>
       <c r="W20" t="n">
         <v>379.9226978561831</v>
@@ -24037,7 +24037,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>320.9794435190313</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>72.00512475291252</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C21" t="n">
         <v>132.6551205385437</v>
@@ -24068,10 +24068,10 @@
         <v>65.42529764590962</v>
       </c>
       <c r="I21" t="n">
-        <v>23.85634635615706</v>
+        <v>23.85634635615707</v>
       </c>
       <c r="J21" t="n">
-        <v>6.228584518226661</v>
+        <v>6.228584518226697</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24095,25 +24095,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>29.33532272952761</v>
+        <v>29.33532272952763</v>
       </c>
       <c r="S21" t="n">
-        <v>98.03537458961453</v>
+        <v>98.03537458961455</v>
       </c>
       <c r="T21" t="n">
-        <v>79.87475435686012</v>
+        <v>79.87475435686034</v>
       </c>
       <c r="U21" t="n">
         <v>195.3458692164555</v>
       </c>
       <c r="V21" t="n">
-        <v>211.5744117368965</v>
+        <v>135.6265489345372</v>
       </c>
       <c r="W21" t="n">
-        <v>135.152973778675</v>
+        <v>135.1529737786752</v>
       </c>
       <c r="X21" t="n">
-        <v>98.61485924013662</v>
+        <v>107.6678444861776</v>
       </c>
       <c r="Y21" t="n">
         <v>157.8079400398083</v>
@@ -24132,7 +24132,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>136.7522399972734</v>
       </c>
       <c r="E22" t="n">
         <v>159.3017069803637</v>
@@ -24150,10 +24150,10 @@
         <v>103.1365670983785</v>
       </c>
       <c r="J22" t="n">
-        <v>23.11334984944294</v>
+        <v>23.11334984944297</v>
       </c>
       <c r="K22" t="n">
-        <v>5.712245507081562</v>
+        <v>5.712245507081597</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24168,16 +24168,16 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>7.333581672173025</v>
+        <v>7.333581672173061</v>
       </c>
       <c r="Q22" t="n">
-        <v>27.81784642339689</v>
+        <v>27.81784642339692</v>
       </c>
       <c r="R22" t="n">
-        <v>66.40922732593032</v>
+        <v>66.40922732593033</v>
       </c>
       <c r="S22" t="n">
-        <v>177.547131831091</v>
+        <v>177.5471318310911</v>
       </c>
       <c r="T22" t="n">
         <v>235.4417556781015</v>
@@ -24189,7 +24189,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>255.1315096131685</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
         <v>235.9604235189134</v>
@@ -24208,25 +24208,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>406.0233447798626</v>
+        <v>186.4667873057664</v>
       </c>
       <c r="D23" t="n">
-        <v>400.41929060787</v>
+        <v>180.8627331337739</v>
       </c>
       <c r="E23" t="n">
-        <v>410.1968133282722</v>
+        <v>350.9676942475476</v>
       </c>
       <c r="F23" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>183.6944827100391</v>
+        <v>403.2510401841353</v>
       </c>
       <c r="H23" t="n">
-        <v>74.00791599383145</v>
+        <v>293.5644734679276</v>
       </c>
       <c r="I23" t="n">
-        <v>31.90177044380178</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>102.2545262986572</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>20.51444875314237</v>
+        <v>213.8998645763261</v>
       </c>
       <c r="U23" t="n">
-        <v>254.3786899365281</v>
+        <v>34.82213246243202</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
@@ -24274,7 +24274,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>177.3707488472946</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -24284,25 +24284,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>103.4062409784957</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E24" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F24" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>105.1765168157536</v>
       </c>
       <c r="H24" t="n">
-        <v>62.85721528991137</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>14.70128436951478</v>
@@ -24338,16 +24338,16 @@
         <v>93.09630611656613</v>
       </c>
       <c r="T24" t="n">
-        <v>154.7508334693185</v>
+        <v>57.37372282006811</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>195.3283754674364</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>174.5627220424961</v>
@@ -24372,10 +24372,10 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>131.0653872668985</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
         <v>164.9543984734636</v>
@@ -24417,7 +24417,7 @@
         <v>173.6621429915595</v>
       </c>
       <c r="T25" t="n">
-        <v>234.4892545020035</v>
+        <v>43.26812015802358</v>
       </c>
       <c r="U25" t="n">
         <v>279.9361575053235</v>
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>212.7335520446608</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>406.0233447798626</v>
+        <v>186.4667873057664</v>
       </c>
       <c r="D26" t="n">
-        <v>180.8627331337739</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>190.6402558541761</v>
+        <v>211.1547046073185</v>
       </c>
       <c r="F26" t="n">
-        <v>197.2635504517532</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>403.2510401841353</v>
+        <v>183.6944827100392</v>
       </c>
       <c r="H26" t="n">
         <v>293.5644734679276</v>
@@ -24496,7 +24496,7 @@
         <v>102.2545262986572</v>
       </c>
       <c r="T26" t="n">
-        <v>213.8998645763261</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>254.3786899365281</v>
@@ -24524,13 +24524,13 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C27" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>107.8702810193205</v>
@@ -24581,16 +24581,16 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>83.79412651686015</v>
       </c>
       <c r="W27" t="n">
-        <v>200.7598947515639</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X27" t="n">
         <v>174.5627220424961</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="28">
@@ -24606,7 +24606,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>159.3017069803637</v>
@@ -24654,7 +24654,7 @@
         <v>173.6621429915595</v>
       </c>
       <c r="T28" t="n">
-        <v>43.26812015802359</v>
+        <v>234.4892545020035</v>
       </c>
       <c r="U28" t="n">
         <v>279.9361575053235</v>
@@ -24669,7 +24669,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>189.1669055114621</v>
       </c>
     </row>
     <row r="29">
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>186.5624103937485</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>180.8627331337739</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>216.8113975050884</v>
+        <v>190.6402558541761</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>197.2635504517532</v>
       </c>
       <c r="G29" t="n">
-        <v>403.2510401841353</v>
+        <v>209.8656243609514</v>
       </c>
       <c r="H29" t="n">
-        <v>293.5644734679276</v>
+        <v>74.00791599383149</v>
       </c>
       <c r="I29" t="n">
         <v>31.90177044380178</v>
@@ -24748,7 +24748,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>177.3707488472947</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="30">
@@ -24761,7 +24761,7 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C30" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>115.7281862028015</v>
@@ -24770,7 +24770,7 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F30" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>105.1765168157536</v>
@@ -24806,10 +24806,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>12.8258886552718</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>93.09630611656613</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24818,16 +24818,16 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W30" t="n">
-        <v>187.8967967501105</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X30" t="n">
         <v>174.5627220424961</v>
       </c>
       <c r="Y30" t="n">
-        <v>157.8079400398083</v>
+        <v>57.63269525801411</v>
       </c>
     </row>
     <row r="31">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
         <v>169.3824387139007</v>
@@ -24861,7 +24861,7 @@
         <v>96.43258009724633</v>
       </c>
       <c r="J31" t="n">
-        <v>1.954070268515955</v>
+        <v>7.352495282391885</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>173.6621429915595</v>
       </c>
       <c r="T31" t="n">
-        <v>234.4892545020035</v>
+        <v>43.26812015802358</v>
       </c>
       <c r="U31" t="n">
         <v>279.9361575053235</v>
@@ -24925,10 +24925,10 @@
         <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>190.6402558541761</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>197.2635504517532</v>
       </c>
       <c r="G32" t="n">
         <v>403.2510401841353</v>
@@ -24976,13 +24976,13 @@
         <v>254.3786899365281</v>
       </c>
       <c r="V32" t="n">
-        <v>152.9537632937003</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>160.366140382087</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>177.0804063786409</v>
+        <v>203.2515480295532</v>
       </c>
       <c r="Y32" t="n">
         <v>396.9273063213908</v>
@@ -24998,7 +24998,7 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D33" t="n">
         <v>115.7281862028015</v>
@@ -25007,16 +25007,16 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F33" t="n">
-        <v>61.79411826844537</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>62.85721528991137</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>14.70128436951478</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25058,13 +25058,13 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W33" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>157.8079400398083</v>
+        <v>112.6189936719978</v>
       </c>
     </row>
     <row r="34">
@@ -25077,7 +25077,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>143.1157028433843</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
         <v>157.8996982303191</v>
@@ -25086,7 +25086,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>136.7180787599983</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>238.9786295906925</v>
       </c>
       <c r="C35" t="n">
         <v>406.0233447798626</v>
@@ -25207,22 +25207,22 @@
         <v>102.2545262986572</v>
       </c>
       <c r="T35" t="n">
-        <v>213.8998645763261</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>254.3786899365281</v>
+        <v>34.82213246243202</v>
       </c>
       <c r="V35" t="n">
-        <v>126.782621642788</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>160.366140382087</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
         <v>177.0804063786409</v>
       </c>
       <c r="Y35" t="n">
-        <v>235.4436609420088</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -25232,22 +25232,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C36" t="n">
         <v>132.6551205385437</v>
       </c>
       <c r="D36" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>107.8702810193205</v>
       </c>
       <c r="G36" t="n">
-        <v>105.1765168157536</v>
+        <v>72.08798390766825</v>
       </c>
       <c r="H36" t="n">
         <v>62.85721528991137</v>
@@ -25292,16 +25292,16 @@
         <v>195.3283754674364</v>
       </c>
       <c r="V36" t="n">
-        <v>203.1660574330529</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="37">
@@ -25317,7 +25317,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>140.3407068778987</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
         <v>159.3017069803637</v>
@@ -25362,7 +25362,7 @@
         <v>56.38567239618433</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>173.6621429915595</v>
       </c>
       <c r="T37" t="n">
         <v>234.4892545020035</v>
@@ -25371,7 +25371,7 @@
         <v>279.9361575053235</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>79.92575326589338</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
@@ -25390,19 +25390,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>186.5624103937485</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>186.4667873057664</v>
       </c>
       <c r="D38" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>216.8113975050884</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>223.4346921026655</v>
       </c>
       <c r="G38" t="n">
         <v>403.2510401841353</v>
@@ -25450,16 +25450,16 @@
         <v>254.3786899365281</v>
       </c>
       <c r="V38" t="n">
-        <v>126.7826216427879</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>160.3661403820869</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>177.0804063786408</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>177.3707488472947</v>
       </c>
     </row>
     <row r="39">
@@ -25472,19 +25472,19 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C39" t="n">
-        <v>26.97054824928212</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F39" t="n">
         <v>107.8702810193205</v>
       </c>
       <c r="G39" t="n">
-        <v>105.1765168157536</v>
+        <v>87.46617417073327</v>
       </c>
       <c r="H39" t="n">
         <v>62.85721528991137</v>
@@ -25526,16 +25526,16 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>195.3283754674364</v>
       </c>
       <c r="V39" t="n">
         <v>211.5744117368965</v>
       </c>
       <c r="W39" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>157.8079400398083</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>168.2637179776836</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
@@ -25599,13 +25599,13 @@
         <v>56.38567239618433</v>
       </c>
       <c r="S40" t="n">
-        <v>173.6621429915595</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>234.4892545020035</v>
       </c>
       <c r="U40" t="n">
-        <v>88.71502316134365</v>
+        <v>279.9361575053235</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>186.5624103937483</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>212.6379289566787</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>180.8627331337738</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>190.640255854176</v>
       </c>
       <c r="F41" t="n">
-        <v>197.2635504517531</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>183.6944827100391</v>
+        <v>403.2510401841353</v>
       </c>
       <c r="H41" t="n">
-        <v>74.0079159938314</v>
+        <v>293.5644734679276</v>
       </c>
       <c r="I41" t="n">
         <v>31.90177044380178</v>
@@ -25690,7 +25690,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>186.5372820329992</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
         <v>396.636963852737</v>
@@ -25715,7 +25715,7 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F42" t="n">
         <v>107.8702810193205</v>
@@ -25763,19 +25763,19 @@
         <v>154.7508334693185</v>
       </c>
       <c r="U42" t="n">
-        <v>195.3283754674364</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>183.5539429714175</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>101.7864905514503</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="43">
@@ -25845,10 +25845,10 @@
         <v>279.9361575053235</v>
       </c>
       <c r="V43" t="n">
-        <v>79.92575326589329</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>85.05783350223447</v>
       </c>
       <c r="X43" t="n">
         <v>235.9604235189134</v>
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>186.5624103937481</v>
+        <v>186.5624103937485</v>
       </c>
       <c r="C44" t="n">
-        <v>186.4667873057661</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>207.033874784686</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
         <v>410.1968133282722</v>
@@ -25879,13 +25879,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>183.6944827100388</v>
+        <v>403.2510401841353</v>
       </c>
       <c r="H44" t="n">
         <v>293.5644734679276</v>
       </c>
       <c r="I44" t="n">
-        <v>31.90177044380174</v>
+        <v>31.90177044380178</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25924,16 +25924,16 @@
         <v>254.3786899365281</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>126.782621642788</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>186.5372820329993</v>
       </c>
       <c r="X44" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>177.3707488472947</v>
       </c>
     </row>
     <row r="45">
@@ -25949,7 +25949,7 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D45" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>119.2878878475953</v>
@@ -25958,13 +25958,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G45" t="n">
-        <v>105.1765168157536</v>
+        <v>94.83557498628306</v>
       </c>
       <c r="H45" t="n">
         <v>62.85721528991137</v>
       </c>
       <c r="I45" t="n">
-        <v>14.70128436951476</v>
+        <v>14.70128436951478</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,10 +25991,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>12.82588865527176</v>
+        <v>12.8258886552718</v>
       </c>
       <c r="S45" t="n">
-        <v>20.32007462551956</v>
+        <v>93.09630611656613</v>
       </c>
       <c r="T45" t="n">
         <v>154.7508334693185</v>
@@ -26006,13 +26006,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X45" t="n">
         <v>174.5627220424961</v>
       </c>
       <c r="Y45" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26034,19 +26034,19 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>136.7180787599983</v>
       </c>
       <c r="G46" t="n">
-        <v>164.9543984734636</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>142.5679993783892</v>
       </c>
       <c r="I46" t="n">
-        <v>96.43258009724632</v>
+        <v>96.43258009724633</v>
       </c>
       <c r="J46" t="n">
-        <v>7.35249528239185</v>
+        <v>7.352495282391885</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,10 +26067,10 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>9.150849970123446</v>
+        <v>9.150849970123488</v>
       </c>
       <c r="R46" t="n">
-        <v>56.3856723961843</v>
+        <v>56.38567239618433</v>
       </c>
       <c r="S46" t="n">
         <v>173.6621429915595</v>
@@ -26079,7 +26079,7 @@
         <v>234.4892545020035</v>
       </c>
       <c r="U46" t="n">
-        <v>88.71502316134323</v>
+        <v>279.9361575053235</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>105903.0135368489</v>
+        <v>129700.6727567229</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>129700.6727567229</v>
+        <v>149630.6706635659</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>182220.4513170094</v>
+        <v>182220.4513170093</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>182220.4513170094</v>
+        <v>182220.4513170093</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>182220.4513170094</v>
+        <v>182220.4513170092</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>182220.4513170094</v>
+        <v>182220.4513170092</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>282399.9645328133</v>
+        <v>282399.9645328132</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>282399.9645328133</v>
+        <v>282399.9645328132</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>282399.9645328133</v>
+        <v>282399.9645328132</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>282399.9645328133</v>
+        <v>282399.9645328132</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>282399.9645328134</v>
+        <v>282399.9645328133</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>31378.67067758489</v>
       </c>
       <c r="C2" t="n">
-        <v>31378.67067758488</v>
+        <v>38429.82896495496</v>
       </c>
       <c r="D2" t="n">
-        <v>38429.82896495495</v>
+        <v>44335.01352994546</v>
       </c>
       <c r="E2" t="n">
-        <v>53991.24483466944</v>
+        <v>53991.24483466942</v>
       </c>
       <c r="F2" t="n">
-        <v>53991.24483466944</v>
+        <v>53991.24483466941</v>
       </c>
       <c r="G2" t="n">
-        <v>53991.24483466944</v>
+        <v>53991.2448346694</v>
       </c>
       <c r="H2" t="n">
-        <v>53991.24483466945</v>
+        <v>53991.24483466939</v>
       </c>
       <c r="I2" t="n">
-        <v>83674.06356527802</v>
+        <v>83674.06356527796</v>
       </c>
       <c r="J2" t="n">
         <v>83674.06356527799</v>
       </c>
       <c r="K2" t="n">
-        <v>83674.06356527802</v>
+        <v>83674.06356527799</v>
       </c>
       <c r="L2" t="n">
+        <v>83674.06356527799</v>
+      </c>
+      <c r="M2" t="n">
+        <v>83674.06356527799</v>
+      </c>
+      <c r="N2" t="n">
         <v>83674.063565278</v>
       </c>
-      <c r="M2" t="n">
-        <v>83674.06356527802</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>83674.06356527799</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>83674.06356527797</v>
-      </c>
-      <c r="P2" t="n">
-        <v>83674.06356527808</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>127350.017006013</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>32530.70738246582</v>
       </c>
       <c r="D3" t="n">
-        <v>30731.69797978574</v>
+        <v>26457.79560364931</v>
       </c>
       <c r="E3" t="n">
-        <v>65985.535478498</v>
+        <v>41040.86016853814</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>131245.2757302738</v>
+        <v>131245.2757302739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>5190.334754265592</v>
       </c>
       <c r="L3" t="n">
-        <v>5104.080590018312</v>
+        <v>4394.248605595586</v>
       </c>
       <c r="M3" t="n">
-        <v>13900.81965466823</v>
+        <v>9574.058412629398</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.891680767585058e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26420,46 +26420,46 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>12.54033106296798</v>
       </c>
       <c r="D4" t="n">
-        <v>12.54033106296798</v>
+        <v>27.19396146355784</v>
       </c>
       <c r="E4" t="n">
-        <v>55.80904781929523</v>
+        <v>55.80904781929516</v>
       </c>
       <c r="F4" t="n">
-        <v>55.80904781929523</v>
+        <v>55.80904781929512</v>
       </c>
       <c r="G4" t="n">
-        <v>55.80904781929523</v>
+        <v>55.8090478192951</v>
       </c>
       <c r="H4" t="n">
-        <v>55.80904781929523</v>
+        <v>55.8090478192951</v>
       </c>
       <c r="I4" t="n">
-        <v>155.650379725</v>
+        <v>155.6503797250001</v>
       </c>
       <c r="J4" t="n">
-        <v>155.650379725</v>
+        <v>155.6503797250001</v>
       </c>
       <c r="K4" t="n">
-        <v>155.650379725</v>
+        <v>155.6503797250001</v>
       </c>
       <c r="L4" t="n">
-        <v>155.650379725</v>
+        <v>155.6503797250001</v>
       </c>
       <c r="M4" t="n">
-        <v>155.650379725</v>
+        <v>155.6503797250001</v>
       </c>
       <c r="N4" t="n">
-        <v>155.650379725</v>
+        <v>155.6503797250001</v>
       </c>
       <c r="O4" t="n">
-        <v>155.650379725</v>
+        <v>155.6503797250001</v>
       </c>
       <c r="P4" t="n">
-        <v>155.6503797250003</v>
+        <v>155.6503797250001</v>
       </c>
     </row>
     <row r="5">
@@ -26472,25 +26472,25 @@
         <v>36508.66363315053</v>
       </c>
       <c r="C5" t="n">
-        <v>36508.66363315053</v>
+        <v>38357.62869214527</v>
       </c>
       <c r="D5" t="n">
-        <v>38357.62869214527</v>
+        <v>39949.45546466367</v>
       </c>
       <c r="E5" t="n">
-        <v>9460.071166703492</v>
+        <v>9460.071166703481</v>
       </c>
       <c r="F5" t="n">
-        <v>9460.07116670349</v>
+        <v>9460.071166703481</v>
       </c>
       <c r="G5" t="n">
-        <v>9460.071166703492</v>
+        <v>9460.071166703479</v>
       </c>
       <c r="H5" t="n">
-        <v>9460.07116670349</v>
+        <v>9460.071166703474</v>
       </c>
       <c r="I5" t="n">
-        <v>20886.45015162826</v>
+        <v>20886.45015162825</v>
       </c>
       <c r="J5" t="n">
         <v>20886.45015162825</v>
@@ -26505,13 +26505,13 @@
         <v>20886.45015162825</v>
       </c>
       <c r="N5" t="n">
-        <v>20886.45015162826</v>
+        <v>20886.45015162825</v>
       </c>
       <c r="O5" t="n">
         <v>20886.45015162826</v>
       </c>
       <c r="P5" t="n">
-        <v>20886.45015162828</v>
+        <v>20886.45015162825</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-132480.0099615786</v>
+        <v>-133912.7172001683</v>
       </c>
       <c r="C6" t="n">
-        <v>-5129.992955565645</v>
+        <v>-33859.6849400127</v>
       </c>
       <c r="D6" t="n">
-        <v>-30672.03803803903</v>
+        <v>-23451.16159559349</v>
       </c>
       <c r="E6" t="n">
-        <v>-21510.17085835135</v>
+        <v>2143.125801500623</v>
       </c>
       <c r="F6" t="n">
-        <v>44475.36462014665</v>
+        <v>43183.98597003875</v>
       </c>
       <c r="G6" t="n">
-        <v>44475.36462014665</v>
+        <v>43183.98597003874</v>
       </c>
       <c r="H6" t="n">
-        <v>44475.36462014666</v>
+        <v>43183.98597003873</v>
       </c>
       <c r="I6" t="n">
-        <v>-68613.31269634902</v>
+        <v>-69719.17372939082</v>
       </c>
       <c r="J6" t="n">
-        <v>62631.96303392474</v>
+        <v>61526.10200088315</v>
       </c>
       <c r="K6" t="n">
-        <v>62631.96303392477</v>
+        <v>56335.76724661755</v>
       </c>
       <c r="L6" t="n">
-        <v>57527.88244390643</v>
+        <v>57131.85339528757</v>
       </c>
       <c r="M6" t="n">
-        <v>48731.14337925653</v>
+        <v>51952.04358825375</v>
       </c>
       <c r="N6" t="n">
-        <v>62631.96303392472</v>
+        <v>61526.10200088316</v>
       </c>
       <c r="O6" t="n">
-        <v>62631.96303392471</v>
+        <v>61526.10200088314</v>
       </c>
       <c r="P6" t="n">
-        <v>62631.96303392461</v>
+        <v>61526.10200088313</v>
       </c>
     </row>
   </sheetData>
@@ -26740,22 +26740,22 @@
         <v>132.1588822546115</v>
       </c>
       <c r="C3" t="n">
-        <v>132.1588822546115</v>
+        <v>160.7282770233651</v>
       </c>
       <c r="D3" t="n">
-        <v>160.7282770233651</v>
+        <v>185.324484099487</v>
       </c>
       <c r="E3" t="n">
-        <v>222.1303260697263</v>
+        <v>222.1303260697262</v>
       </c>
       <c r="F3" t="n">
-        <v>222.1303260697263</v>
+        <v>222.1303260697262</v>
       </c>
       <c r="G3" t="n">
-        <v>222.1303260697263</v>
+        <v>222.1303260697261</v>
       </c>
       <c r="H3" t="n">
-        <v>222.1303260697263</v>
+        <v>222.1303260697261</v>
       </c>
       <c r="I3" t="n">
         <v>345.7528191377621</v>
@@ -26779,7 +26779,7 @@
         <v>345.7528191377621</v>
       </c>
       <c r="P3" t="n">
-        <v>345.7528191377624</v>
+        <v>345.7528191377621</v>
       </c>
     </row>
     <row r="4">
@@ -26792,25 +26792,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="D4" t="n">
-        <v>20.16697784598549</v>
+        <v>37.52930446208636</v>
       </c>
       <c r="E4" t="n">
-        <v>75.94786280235951</v>
+        <v>75.94786280235938</v>
       </c>
       <c r="F4" t="n">
-        <v>75.9478628023595</v>
+        <v>75.94786280235938</v>
       </c>
       <c r="G4" t="n">
-        <v>75.94786280235951</v>
+        <v>75.94786280235938</v>
       </c>
       <c r="H4" t="n">
-        <v>75.9478628023595</v>
+        <v>75.94786280235928</v>
       </c>
       <c r="I4" t="n">
-        <v>219.5565574740962</v>
+        <v>219.5565574740961</v>
       </c>
       <c r="J4" t="n">
         <v>219.5565574740961</v>
@@ -26825,13 +26825,13 @@
         <v>219.5565574740961</v>
       </c>
       <c r="N4" t="n">
-        <v>219.5565574740962</v>
+        <v>219.5565574740961</v>
       </c>
       <c r="O4" t="n">
         <v>219.5565574740962</v>
       </c>
       <c r="P4" t="n">
-        <v>219.5565574740965</v>
+        <v>219.5565574740961</v>
       </c>
     </row>
   </sheetData>
@@ -26962,13 +26962,13 @@
         <v>132.1588822546115</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>28.56939476875351</v>
       </c>
       <c r="D3" t="n">
-        <v>28.56939476875351</v>
+        <v>24.59620707612194</v>
       </c>
       <c r="E3" t="n">
-        <v>61.40204904636124</v>
+        <v>36.80584197023921</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>123.6224930680358</v>
+        <v>123.622493068036</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27014,37 +27014,37 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="D4" t="n">
+        <v>17.36232661610087</v>
+      </c>
+      <c r="E4" t="n">
+        <v>38.41855834027302</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>143.6086946717368</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
         <v>20.16697784598549</v>
       </c>
-      <c r="E4" t="n">
-        <v>55.78088495637402</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>143.6086946717367</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
       <c r="L4" t="n">
-        <v>20.16697784598549</v>
+        <v>17.36232661610087</v>
       </c>
       <c r="M4" t="n">
-        <v>55.78088495637402</v>
+        <v>38.41855834027302</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="L4" t="n">
-        <v>20.16697784598549</v>
+        <v>17.36232661610087</v>
       </c>
       <c r="M4" t="n">
-        <v>55.78088495637402</v>
+        <v>38.41855834027302</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31044,7 +31044,7 @@
         <v>0.531291988963262</v>
       </c>
       <c r="H2" t="n">
-        <v>5.441094081970009</v>
+        <v>5.441094081970008</v>
       </c>
       <c r="I2" t="n">
         <v>20.48263440450618</v>
@@ -31056,7 +31056,7 @@
         <v>67.5823333410856</v>
       </c>
       <c r="L2" t="n">
-        <v>83.84186054832006</v>
+        <v>83.84186054832004</v>
       </c>
       <c r="M2" t="n">
         <v>93.29022445704545</v>
@@ -31126,7 +31126,7 @@
         <v>2.745413761553346</v>
       </c>
       <c r="I3" t="n">
-        <v>9.78723797828963</v>
+        <v>9.787237978289628</v>
       </c>
       <c r="J3" t="n">
         <v>26.85692908157158</v>
@@ -31150,13 +31150,13 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
-        <v>36.28634065224731</v>
+        <v>36.2863406522473</v>
       </c>
       <c r="R3" t="n">
         <v>17.64944469053096</v>
       </c>
       <c r="S3" t="n">
-        <v>5.280121380644147</v>
+        <v>5.280121380644146</v>
       </c>
       <c r="T3" t="n">
         <v>1.14579257350932</v>
@@ -31205,7 +31205,7 @@
         <v>2.118875194180494</v>
       </c>
       <c r="I4" t="n">
-        <v>7.166911188495985</v>
+        <v>7.166911188495984</v>
       </c>
       <c r="J4" t="n">
         <v>16.84917421793629</v>
@@ -31226,7 +31226,7 @@
         <v>33.68534920155247</v>
       </c>
       <c r="P4" t="n">
-        <v>28.82363556582543</v>
+        <v>28.82363556582542</v>
       </c>
       <c r="Q4" t="n">
         <v>19.95599122044634</v>
@@ -31235,7 +31235,7 @@
         <v>10.7157021578903</v>
       </c>
       <c r="S4" t="n">
-        <v>4.153255365280168</v>
+        <v>4.153255365280167</v>
       </c>
       <c r="T4" t="n">
         <v>1.018273355076515</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.531291988963262</v>
+        <v>0.6461438272296077</v>
       </c>
       <c r="H5" t="n">
-        <v>5.441094081970008</v>
+        <v>6.617320470615222</v>
       </c>
       <c r="I5" t="n">
-        <v>20.48263440450618</v>
+        <v>24.91045989926948</v>
       </c>
       <c r="J5" t="n">
-        <v>45.0927434482707</v>
+        <v>54.84064965632897</v>
       </c>
       <c r="K5" t="n">
-        <v>67.5823333410856</v>
+        <v>82.19191786295828</v>
       </c>
       <c r="L5" t="n">
-        <v>83.84186054832004</v>
+        <v>101.9663420155364</v>
       </c>
       <c r="M5" t="n">
-        <v>93.29022445704545</v>
+        <v>113.4572023030309</v>
       </c>
       <c r="N5" t="n">
-        <v>92.91229075661933</v>
+        <v>113.0792686026048</v>
       </c>
       <c r="O5" t="n">
-        <v>89.5167231054339</v>
+        <v>108.8679657701327</v>
       </c>
       <c r="P5" t="n">
-        <v>76.40045212790335</v>
+        <v>92.9162900354017</v>
       </c>
       <c r="Q5" t="n">
-        <v>57.37355777315651</v>
+        <v>69.77626422274135</v>
       </c>
       <c r="R5" t="n">
-        <v>33.37377040171354</v>
+        <v>40.58833218721188</v>
       </c>
       <c r="S5" t="n">
-        <v>12.10681619850035</v>
+        <v>14.7240024629947</v>
       </c>
       <c r="T5" t="n">
-        <v>2.325730681686681</v>
+        <v>2.828494603697609</v>
       </c>
       <c r="U5" t="n">
-        <v>0.04250335911706096</v>
+        <v>0.05169150617836861</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2842662750382211</v>
+        <v>0.3457174260502569</v>
       </c>
       <c r="H6" t="n">
-        <v>2.745413761553346</v>
+        <v>3.338902509485377</v>
       </c>
       <c r="I6" t="n">
-        <v>9.787237978289628</v>
+        <v>11.90299032673034</v>
       </c>
       <c r="J6" t="n">
-        <v>26.85692908157158</v>
+        <v>32.66271523924818</v>
       </c>
       <c r="K6" t="n">
-        <v>45.90276950913239</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
-        <v>56.11452381084905</v>
+        <v>75.06465428341215</v>
       </c>
       <c r="M6" t="n">
-        <v>57.56428373841742</v>
+        <v>77.73126158440292</v>
       </c>
       <c r="N6" t="n">
-        <v>53.19339339374999</v>
+        <v>73.36037123973549</v>
       </c>
       <c r="O6" t="n">
-        <v>57.751479</v>
+        <v>77.91845684598547</v>
       </c>
       <c r="P6" t="n">
-        <v>54.25963500280375</v>
+        <v>54.66165498850956</v>
       </c>
       <c r="Q6" t="n">
-        <v>36.2863406522473</v>
+        <v>44.13052617441525</v>
       </c>
       <c r="R6" t="n">
-        <v>17.64944469053096</v>
+        <v>21.46480650512035</v>
       </c>
       <c r="S6" t="n">
-        <v>5.280121380644146</v>
+        <v>6.421549558433496</v>
       </c>
       <c r="T6" t="n">
-        <v>1.14579257350932</v>
+        <v>1.39348383570257</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0187017286209356</v>
+        <v>0.02274456750330639</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2383192958689716</v>
+        <v>0.2898378765995107</v>
       </c>
       <c r="H7" t="n">
-        <v>2.118875194180494</v>
+        <v>2.576922211948379</v>
       </c>
       <c r="I7" t="n">
-        <v>7.166911188495984</v>
+        <v>8.71621541628347</v>
       </c>
       <c r="J7" t="n">
-        <v>16.84917421793629</v>
+        <v>20.49153787558541</v>
       </c>
       <c r="K7" t="n">
-        <v>27.68836910186779</v>
+        <v>33.6738914812886</v>
       </c>
       <c r="L7" t="n">
-        <v>35.43157967855602</v>
+        <v>43.09098758098545</v>
       </c>
       <c r="M7" t="n">
-        <v>37.35763289698797</v>
+        <v>45.43340460186693</v>
       </c>
       <c r="N7" t="n">
-        <v>36.46935188511274</v>
+        <v>44.35309978908698</v>
       </c>
       <c r="O7" t="n">
-        <v>33.68534920155247</v>
+        <v>40.96726641244722</v>
       </c>
       <c r="P7" t="n">
-        <v>28.82363556582542</v>
+        <v>35.05457372981717</v>
       </c>
       <c r="Q7" t="n">
-        <v>19.95599122044634</v>
+        <v>24.26996983052812</v>
       </c>
       <c r="R7" t="n">
-        <v>10.7157021578903</v>
+        <v>13.03216488782891</v>
       </c>
       <c r="S7" t="n">
-        <v>4.153255365280167</v>
+        <v>5.051083722193289</v>
       </c>
       <c r="T7" t="n">
-        <v>1.018273355076515</v>
+        <v>1.238398200016091</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01299923432012574</v>
+        <v>0.01580933872360969</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6461438272296077</v>
+        <v>0.7450230516562285</v>
       </c>
       <c r="H8" t="n">
-        <v>6.617320470615222</v>
+        <v>7.629967327774352</v>
       </c>
       <c r="I8" t="n">
-        <v>24.91045989926948</v>
+        <v>28.72250119897678</v>
       </c>
       <c r="J8" t="n">
-        <v>54.84064965632897</v>
+        <v>63.23290023050789</v>
       </c>
       <c r="K8" t="n">
-        <v>82.19191786295828</v>
+        <v>94.76972600711606</v>
       </c>
       <c r="L8" t="n">
-        <v>101.9663420155364</v>
+        <v>117.5702252242404</v>
       </c>
       <c r="M8" t="n">
-        <v>113.4572023030309</v>
+        <v>130.8195289191318</v>
       </c>
       <c r="N8" t="n">
-        <v>113.0792686026048</v>
+        <v>130.4415952187057</v>
       </c>
       <c r="O8" t="n">
-        <v>108.8679657701327</v>
+        <v>125.5280026947435</v>
       </c>
       <c r="P8" t="n">
-        <v>92.9162900354017</v>
+        <v>107.1352461069803</v>
       </c>
       <c r="Q8" t="n">
-        <v>69.77626422274135</v>
+        <v>80.4541080695416</v>
       </c>
       <c r="R8" t="n">
-        <v>40.58833218721188</v>
+        <v>46.79955426860061</v>
       </c>
       <c r="S8" t="n">
-        <v>14.7240024629947</v>
+        <v>16.97721278961632</v>
       </c>
       <c r="T8" t="n">
-        <v>2.828494603697609</v>
+        <v>3.261338408625142</v>
       </c>
       <c r="U8" t="n">
-        <v>0.05169150617836861</v>
+        <v>0.05960184413249827</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3457174260502569</v>
+        <v>0.3986224752328588</v>
       </c>
       <c r="H9" t="n">
-        <v>3.338902509485377</v>
+        <v>3.8498539055384</v>
       </c>
       <c r="I9" t="n">
-        <v>11.90299032673034</v>
+        <v>13.72450188849975</v>
       </c>
       <c r="J9" t="n">
-        <v>32.66271523924818</v>
+        <v>37.66108218855707</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>64.36878802915861</v>
       </c>
       <c r="L9" t="n">
-        <v>75.06465428341215</v>
+        <v>62.16306937768386</v>
       </c>
       <c r="M9" t="n">
-        <v>77.73126158440292</v>
+        <v>95.09358820050377</v>
       </c>
       <c r="N9" t="n">
-        <v>62.00516089764815</v>
+        <v>90.72269785583634</v>
       </c>
       <c r="O9" t="n">
-        <v>77.91845684598547</v>
+        <v>94.84242725419689</v>
       </c>
       <c r="P9" t="n">
-        <v>66.01686533059687</v>
+        <v>76.11940932757986</v>
       </c>
       <c r="Q9" t="n">
-        <v>44.13052617441525</v>
+        <v>50.88380929463651</v>
       </c>
       <c r="R9" t="n">
-        <v>21.46480650512035</v>
+        <v>24.74956034822961</v>
       </c>
       <c r="S9" t="n">
-        <v>6.421549558433496</v>
+        <v>7.404237643031386</v>
       </c>
       <c r="T9" t="n">
-        <v>1.39348383570257</v>
+        <v>1.606728310258759</v>
       </c>
       <c r="U9" t="n">
-        <v>0.02274456750330639</v>
+        <v>0.02622516284426704</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2898378765995107</v>
+        <v>0.3341916926384191</v>
       </c>
       <c r="H10" t="n">
-        <v>2.576922211948379</v>
+        <v>2.97126795818522</v>
       </c>
       <c r="I10" t="n">
-        <v>8.71621541628347</v>
+        <v>10.05005562952628</v>
       </c>
       <c r="J10" t="n">
-        <v>20.49153787558541</v>
+        <v>23.62735266953623</v>
       </c>
       <c r="K10" t="n">
-        <v>33.6738914812886</v>
+        <v>38.82699847199087</v>
       </c>
       <c r="L10" t="n">
-        <v>43.09098758098545</v>
+        <v>49.6851903764428</v>
       </c>
       <c r="M10" t="n">
-        <v>45.43340460186693</v>
+        <v>52.38606687422055</v>
       </c>
       <c r="N10" t="n">
-        <v>44.35309978908698</v>
+        <v>51.1404432925683</v>
       </c>
       <c r="O10" t="n">
-        <v>40.96726641244722</v>
+        <v>47.2364767012922</v>
       </c>
       <c r="P10" t="n">
-        <v>35.05457372981717</v>
+        <v>40.41896617146842</v>
       </c>
       <c r="Q10" t="n">
-        <v>24.26996983052812</v>
+        <v>27.98399709902253</v>
       </c>
       <c r="R10" t="n">
-        <v>13.03216488782891</v>
+        <v>15.02647374354201</v>
       </c>
       <c r="S10" t="n">
-        <v>5.051083722193289</v>
+        <v>5.82404977079863</v>
       </c>
       <c r="T10" t="n">
-        <v>1.238398200016091</v>
+        <v>1.427909959455063</v>
       </c>
       <c r="U10" t="n">
-        <v>0.01580933872360969</v>
+        <v>0.01822863778027743</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8929862354561854</v>
+        <v>0.8929862354561851</v>
       </c>
       <c r="H11" t="n">
-        <v>9.145295283865661</v>
+        <v>9.145295283865657</v>
       </c>
       <c r="I11" t="n">
-        <v>34.42685184242463</v>
+        <v>34.42685184242461</v>
       </c>
       <c r="J11" t="n">
-        <v>75.79109050154949</v>
+        <v>75.79109050154946</v>
       </c>
       <c r="K11" t="n">
         <v>113.5911978484098</v>
@@ -31776,25 +31776,25 @@
         <v>159.3377664580359</v>
       </c>
       <c r="O11" t="n">
-        <v>150.4581345792185</v>
+        <v>150.4581345792184</v>
       </c>
       <c r="P11" t="n">
-        <v>128.4125368913939</v>
+        <v>128.4125368913938</v>
       </c>
       <c r="Q11" t="n">
-        <v>96.43246733411921</v>
+        <v>96.43246733411918</v>
       </c>
       <c r="R11" t="n">
-        <v>56.09404661297466</v>
+        <v>56.09404661297464</v>
       </c>
       <c r="S11" t="n">
-        <v>20.34892384045785</v>
+        <v>20.34892384045784</v>
       </c>
       <c r="T11" t="n">
-        <v>3.909047245709454</v>
+        <v>3.909047245709452</v>
       </c>
       <c r="U11" t="n">
-        <v>0.07143889883649482</v>
+        <v>0.07143889883649479</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4777897579612981</v>
+        <v>0.4777897579612979</v>
       </c>
       <c r="H12" t="n">
-        <v>4.614443188731485</v>
+        <v>4.614443188731483</v>
       </c>
       <c r="I12" t="n">
         <v>16.45021754384294</v>
       </c>
       <c r="J12" t="n">
-        <v>45.14065428177335</v>
+        <v>45.14065428177333</v>
       </c>
       <c r="K12" t="n">
-        <v>77.1525680651803</v>
+        <v>77.15256806518029</v>
       </c>
       <c r="L12" t="n">
-        <v>103.7411489819038</v>
+        <v>103.7411489819037</v>
       </c>
       <c r="M12" t="n">
         <v>121.0610277080008</v>
       </c>
       <c r="N12" t="n">
-        <v>124.265152883101</v>
+        <v>124.2651528831009</v>
       </c>
       <c r="O12" t="n">
         <v>113.6783377198532</v>
       </c>
       <c r="P12" t="n">
-        <v>91.23688807946928</v>
+        <v>91.23688807946925</v>
       </c>
       <c r="Q12" t="n">
-        <v>60.98944348993693</v>
+        <v>60.98944348993668</v>
       </c>
       <c r="R12" t="n">
-        <v>29.6648763758778</v>
+        <v>29.66487637587779</v>
       </c>
       <c r="S12" t="n">
-        <v>8.874735197219719</v>
+        <v>8.874735197219715</v>
       </c>
       <c r="T12" t="n">
-        <v>1.925828015642249</v>
+        <v>1.925828015642248</v>
       </c>
       <c r="U12" t="n">
-        <v>0.03143353670798015</v>
+        <v>0.03143353670798014</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4005628830765556</v>
+        <v>0.4005628830765554</v>
       </c>
       <c r="H13" t="n">
-        <v>3.561368178626106</v>
+        <v>3.561368178626104</v>
       </c>
       <c r="I13" t="n">
         <v>12.0460183383386</v>
       </c>
       <c r="J13" t="n">
-        <v>28.31979583351248</v>
+        <v>28.31979583351247</v>
       </c>
       <c r="K13" t="n">
-        <v>46.53812405198526</v>
+        <v>46.53812405198525</v>
       </c>
       <c r="L13" t="n">
-        <v>59.5527762712181</v>
+        <v>59.55277627121808</v>
       </c>
       <c r="M13" t="n">
-        <v>62.7900526626277</v>
+        <v>62.79005266262767</v>
       </c>
       <c r="N13" t="n">
-        <v>61.29704555297877</v>
+        <v>61.29704555297874</v>
       </c>
       <c r="O13" t="n">
-        <v>56.61774278249353</v>
+        <v>56.61774278249351</v>
       </c>
       <c r="P13" t="n">
-        <v>48.44625996773176</v>
+        <v>48.44625996773173</v>
       </c>
       <c r="Q13" t="n">
-        <v>33.54167923652867</v>
+        <v>33.54167923652866</v>
       </c>
       <c r="R13" t="n">
-        <v>18.01076381542403</v>
+        <v>18.01076381542402</v>
       </c>
       <c r="S13" t="n">
-        <v>6.980718607797789</v>
+        <v>6.980718607797786</v>
       </c>
       <c r="T13" t="n">
         <v>1.711495954963464</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02184888453144851</v>
+        <v>0.0218488845314485</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8929862354561854</v>
+        <v>0.8929862354561848</v>
       </c>
       <c r="H14" t="n">
-        <v>9.145295283865661</v>
+        <v>9.145295283865655</v>
       </c>
       <c r="I14" t="n">
-        <v>34.42685184242463</v>
+        <v>34.4268518424246</v>
       </c>
       <c r="J14" t="n">
-        <v>75.79109050154949</v>
+        <v>75.79109050154943</v>
       </c>
       <c r="K14" t="n">
         <v>113.5911978484098</v>
       </c>
       <c r="L14" t="n">
-        <v>140.9199253517521</v>
+        <v>140.919925351752</v>
       </c>
       <c r="M14" t="n">
-        <v>156.800569316546</v>
+        <v>156.8005693165459</v>
       </c>
       <c r="N14" t="n">
-        <v>159.3377664580359</v>
+        <v>159.3377664580358</v>
       </c>
       <c r="O14" t="n">
-        <v>150.4581345792185</v>
+        <v>150.4581345792184</v>
       </c>
       <c r="P14" t="n">
-        <v>128.4125368913939</v>
+        <v>128.4125368913938</v>
       </c>
       <c r="Q14" t="n">
-        <v>96.43246733411921</v>
+        <v>96.43246733411915</v>
       </c>
       <c r="R14" t="n">
-        <v>56.09404661297466</v>
+        <v>56.09404661297462</v>
       </c>
       <c r="S14" t="n">
-        <v>20.34892384045785</v>
+        <v>20.34892384045783</v>
       </c>
       <c r="T14" t="n">
-        <v>3.909047245709454</v>
+        <v>3.909047245709451</v>
       </c>
       <c r="U14" t="n">
-        <v>0.07143889883649482</v>
+        <v>0.07143889883649478</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4777897579612981</v>
+        <v>0.4777897579612978</v>
       </c>
       <c r="H15" t="n">
-        <v>4.614443188731485</v>
+        <v>4.614443188731482</v>
       </c>
       <c r="I15" t="n">
-        <v>16.45021754384294</v>
+        <v>16.45021754384293</v>
       </c>
       <c r="J15" t="n">
-        <v>45.14065428177335</v>
+        <v>45.14065428177332</v>
       </c>
       <c r="K15" t="n">
-        <v>77.15256806518032</v>
+        <v>77.15256806518026</v>
       </c>
       <c r="L15" t="n">
-        <v>103.7411489819038</v>
+        <v>103.7411489819037</v>
       </c>
       <c r="M15" t="n">
-        <v>121.0610277080008</v>
+        <v>121.0610277080007</v>
       </c>
       <c r="N15" t="n">
-        <v>124.265152883101</v>
+        <v>124.2651528831009</v>
       </c>
       <c r="O15" t="n">
         <v>113.6783377198532</v>
       </c>
       <c r="P15" t="n">
-        <v>91.23688807946928</v>
+        <v>91.23688807946922</v>
       </c>
       <c r="Q15" t="n">
-        <v>60.98944348993693</v>
+        <v>60.9894434899369</v>
       </c>
       <c r="R15" t="n">
-        <v>29.6648763758778</v>
+        <v>29.66487637587778</v>
       </c>
       <c r="S15" t="n">
-        <v>8.874735197219719</v>
+        <v>8.874735197219714</v>
       </c>
       <c r="T15" t="n">
-        <v>1.925828015642249</v>
+        <v>1.925828015642248</v>
       </c>
       <c r="U15" t="n">
-        <v>0.03143353670798015</v>
+        <v>0.03143353670798013</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4005628830765556</v>
+        <v>0.4005628830765553</v>
       </c>
       <c r="H16" t="n">
-        <v>3.561368178626106</v>
+        <v>3.561368178626104</v>
       </c>
       <c r="I16" t="n">
-        <v>12.0460183383386</v>
+        <v>12.04601833833859</v>
       </c>
       <c r="J16" t="n">
-        <v>28.31979583351248</v>
+        <v>28.31979583351246</v>
       </c>
       <c r="K16" t="n">
-        <v>46.53812405198526</v>
+        <v>46.53812405198524</v>
       </c>
       <c r="L16" t="n">
-        <v>59.5527762712181</v>
+        <v>59.55277627121806</v>
       </c>
       <c r="M16" t="n">
-        <v>62.7900526626277</v>
+        <v>62.79005266262766</v>
       </c>
       <c r="N16" t="n">
-        <v>61.29704555297877</v>
+        <v>61.29704555297873</v>
       </c>
       <c r="O16" t="n">
-        <v>56.61774278249353</v>
+        <v>56.61774278249349</v>
       </c>
       <c r="P16" t="n">
-        <v>48.44625996773176</v>
+        <v>48.44625996773173</v>
       </c>
       <c r="Q16" t="n">
-        <v>33.54167923652867</v>
+        <v>33.54167923652865</v>
       </c>
       <c r="R16" t="n">
-        <v>18.01076381542403</v>
+        <v>18.01076381542402</v>
       </c>
       <c r="S16" t="n">
-        <v>6.980718607797789</v>
+        <v>6.980718607797784</v>
       </c>
       <c r="T16" t="n">
-        <v>1.711495954963464</v>
+        <v>1.711495954963463</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02184888453144851</v>
+        <v>0.0218488845314485</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8929862354561854</v>
+        <v>0.8929862354561847</v>
       </c>
       <c r="H17" t="n">
-        <v>9.145295283865661</v>
+        <v>9.145295283865654</v>
       </c>
       <c r="I17" t="n">
-        <v>34.42685184242463</v>
+        <v>34.4268518424246</v>
       </c>
       <c r="J17" t="n">
-        <v>75.79109050154949</v>
+        <v>75.79109050154943</v>
       </c>
       <c r="K17" t="n">
-        <v>113.5911978484098</v>
+        <v>113.5911978484097</v>
       </c>
       <c r="L17" t="n">
-        <v>140.9199253517521</v>
+        <v>140.919925351752</v>
       </c>
       <c r="M17" t="n">
-        <v>156.800569316546</v>
+        <v>156.8005693165459</v>
       </c>
       <c r="N17" t="n">
-        <v>159.3377664580359</v>
+        <v>159.3377664580358</v>
       </c>
       <c r="O17" t="n">
-        <v>150.4581345792185</v>
+        <v>150.4581345792184</v>
       </c>
       <c r="P17" t="n">
-        <v>128.4125368913939</v>
+        <v>128.4125368913938</v>
       </c>
       <c r="Q17" t="n">
-        <v>96.43246733411921</v>
+        <v>96.43246733411914</v>
       </c>
       <c r="R17" t="n">
-        <v>56.09404661297466</v>
+        <v>56.09404661297462</v>
       </c>
       <c r="S17" t="n">
-        <v>20.34892384045785</v>
+        <v>20.34892384045783</v>
       </c>
       <c r="T17" t="n">
-        <v>3.909047245709454</v>
+        <v>3.909047245709451</v>
       </c>
       <c r="U17" t="n">
-        <v>0.07143889883649482</v>
+        <v>0.07143889883649476</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4777897579612981</v>
+        <v>0.4777897579612977</v>
       </c>
       <c r="H18" t="n">
-        <v>4.614443188731485</v>
+        <v>4.614443188731482</v>
       </c>
       <c r="I18" t="n">
-        <v>16.45021754384294</v>
+        <v>16.45021754384293</v>
       </c>
       <c r="J18" t="n">
-        <v>45.14065428177335</v>
+        <v>45.14065428177332</v>
       </c>
       <c r="K18" t="n">
-        <v>77.15256806518032</v>
+        <v>77.15256806518026</v>
       </c>
       <c r="L18" t="n">
-        <v>103.7411489819038</v>
+        <v>103.7411489819037</v>
       </c>
       <c r="M18" t="n">
-        <v>121.0610277080008</v>
+        <v>121.0610277080007</v>
       </c>
       <c r="N18" t="n">
-        <v>124.265152883101</v>
+        <v>124.2651528831009</v>
       </c>
       <c r="O18" t="n">
-        <v>113.6783377198532</v>
+        <v>113.6783377198531</v>
       </c>
       <c r="P18" t="n">
-        <v>91.23688807946928</v>
+        <v>91.23688807946921</v>
       </c>
       <c r="Q18" t="n">
-        <v>60.98944348993693</v>
+        <v>60.98944348993689</v>
       </c>
       <c r="R18" t="n">
-        <v>29.6648763758778</v>
+        <v>29.66487637587777</v>
       </c>
       <c r="S18" t="n">
-        <v>8.874735197219719</v>
+        <v>8.874735197219712</v>
       </c>
       <c r="T18" t="n">
-        <v>1.925828015642249</v>
+        <v>1.925828015642248</v>
       </c>
       <c r="U18" t="n">
-        <v>0.03143353670798015</v>
+        <v>0.03143353670798012</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4005628830765556</v>
+        <v>0.4005628830765552</v>
       </c>
       <c r="H19" t="n">
-        <v>3.561368178626106</v>
+        <v>3.561368178626103</v>
       </c>
       <c r="I19" t="n">
-        <v>12.0460183383386</v>
+        <v>12.04601833833859</v>
       </c>
       <c r="J19" t="n">
-        <v>28.31979583351248</v>
+        <v>28.31979583351245</v>
       </c>
       <c r="K19" t="n">
-        <v>46.53812405198526</v>
+        <v>46.53812405198523</v>
       </c>
       <c r="L19" t="n">
-        <v>59.5527762712181</v>
+        <v>59.55277627121805</v>
       </c>
       <c r="M19" t="n">
-        <v>62.7900526626277</v>
+        <v>62.79005266262765</v>
       </c>
       <c r="N19" t="n">
-        <v>61.29704555297877</v>
+        <v>61.29704555297872</v>
       </c>
       <c r="O19" t="n">
-        <v>56.61774278249353</v>
+        <v>56.61774278249349</v>
       </c>
       <c r="P19" t="n">
-        <v>48.44625996773176</v>
+        <v>48.44625996773172</v>
       </c>
       <c r="Q19" t="n">
-        <v>33.54167923652867</v>
+        <v>33.54167923652864</v>
       </c>
       <c r="R19" t="n">
-        <v>18.01076381542403</v>
+        <v>18.01076381542402</v>
       </c>
       <c r="S19" t="n">
-        <v>6.980718607797789</v>
+        <v>6.980718607797783</v>
       </c>
       <c r="T19" t="n">
-        <v>1.711495954963464</v>
+        <v>1.711495954963463</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02184888453144851</v>
+        <v>0.0218488845314485</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.8929862354561854</v>
+        <v>0.8929862354561847</v>
       </c>
       <c r="H20" t="n">
-        <v>9.145295283865661</v>
+        <v>9.145295283865654</v>
       </c>
       <c r="I20" t="n">
-        <v>34.42685184242463</v>
+        <v>34.4268518424246</v>
       </c>
       <c r="J20" t="n">
-        <v>75.79109050154949</v>
+        <v>75.79109050154943</v>
       </c>
       <c r="K20" t="n">
-        <v>113.5911978484098</v>
+        <v>113.5911978484097</v>
       </c>
       <c r="L20" t="n">
-        <v>140.9199253517521</v>
+        <v>140.919925351752</v>
       </c>
       <c r="M20" t="n">
-        <v>156.800569316546</v>
+        <v>156.8005693165459</v>
       </c>
       <c r="N20" t="n">
-        <v>159.3377664580359</v>
+        <v>159.3377664580358</v>
       </c>
       <c r="O20" t="n">
-        <v>150.4581345792185</v>
+        <v>150.4581345792184</v>
       </c>
       <c r="P20" t="n">
-        <v>128.4125368913939</v>
+        <v>128.4125368913938</v>
       </c>
       <c r="Q20" t="n">
-        <v>96.43246733411921</v>
+        <v>96.43246733411914</v>
       </c>
       <c r="R20" t="n">
-        <v>56.09404661297466</v>
+        <v>56.09404661297462</v>
       </c>
       <c r="S20" t="n">
-        <v>20.34892384045785</v>
+        <v>20.34892384045783</v>
       </c>
       <c r="T20" t="n">
-        <v>3.909047245709454</v>
+        <v>3.909047245709451</v>
       </c>
       <c r="U20" t="n">
-        <v>0.07143889883649482</v>
+        <v>0.07143889883649476</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4777897579612981</v>
+        <v>0.4777897579612977</v>
       </c>
       <c r="H21" t="n">
-        <v>4.614443188731485</v>
+        <v>4.614443188731482</v>
       </c>
       <c r="I21" t="n">
-        <v>16.45021754384294</v>
+        <v>16.45021754384293</v>
       </c>
       <c r="J21" t="n">
-        <v>45.14065428177335</v>
+        <v>45.14065428177332</v>
       </c>
       <c r="K21" t="n">
-        <v>77.15256806518032</v>
+        <v>77.15256806518026</v>
       </c>
       <c r="L21" t="n">
-        <v>103.7411489819038</v>
+        <v>103.7411489819037</v>
       </c>
       <c r="M21" t="n">
-        <v>121.0610277080008</v>
+        <v>121.0610277080007</v>
       </c>
       <c r="N21" t="n">
-        <v>124.265152883101</v>
+        <v>124.2651528831009</v>
       </c>
       <c r="O21" t="n">
-        <v>113.6783377198532</v>
+        <v>113.6783377198531</v>
       </c>
       <c r="P21" t="n">
-        <v>91.23688807946928</v>
+        <v>91.23688807946921</v>
       </c>
       <c r="Q21" t="n">
-        <v>60.98944348993693</v>
+        <v>60.98944348993689</v>
       </c>
       <c r="R21" t="n">
-        <v>29.6648763758778</v>
+        <v>29.66487637587777</v>
       </c>
       <c r="S21" t="n">
-        <v>8.874735197219719</v>
+        <v>8.874735197219712</v>
       </c>
       <c r="T21" t="n">
-        <v>1.925828015642249</v>
+        <v>1.925828015642248</v>
       </c>
       <c r="U21" t="n">
-        <v>0.03143353670798015</v>
+        <v>0.03143353670798012</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4005628830765556</v>
+        <v>0.4005628830765552</v>
       </c>
       <c r="H22" t="n">
-        <v>3.561368178626106</v>
+        <v>3.561368178626103</v>
       </c>
       <c r="I22" t="n">
-        <v>12.0460183383386</v>
+        <v>12.04601833833859</v>
       </c>
       <c r="J22" t="n">
-        <v>28.31979583351248</v>
+        <v>28.31979583351245</v>
       </c>
       <c r="K22" t="n">
-        <v>46.53812405198526</v>
+        <v>46.53812405198523</v>
       </c>
       <c r="L22" t="n">
-        <v>59.5527762712181</v>
+        <v>59.55277627121805</v>
       </c>
       <c r="M22" t="n">
-        <v>62.7900526626277</v>
+        <v>62.79005266262765</v>
       </c>
       <c r="N22" t="n">
-        <v>61.29704555297877</v>
+        <v>61.29704555297872</v>
       </c>
       <c r="O22" t="n">
-        <v>56.61774278249353</v>
+        <v>56.61774278249349</v>
       </c>
       <c r="P22" t="n">
-        <v>48.44625996773176</v>
+        <v>48.44625996773172</v>
       </c>
       <c r="Q22" t="n">
-        <v>33.54167923652867</v>
+        <v>33.54167923652864</v>
       </c>
       <c r="R22" t="n">
-        <v>18.01076381542403</v>
+        <v>18.01076381542402</v>
       </c>
       <c r="S22" t="n">
-        <v>6.980718607797789</v>
+        <v>6.980718607797783</v>
       </c>
       <c r="T22" t="n">
-        <v>1.711495954963464</v>
+        <v>1.711495954963463</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02184888453144851</v>
+        <v>0.0218488845314485</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.389961081960853</v>
+        <v>1.389961081960852</v>
       </c>
       <c r="H44" t="n">
-        <v>14.23493893063159</v>
+        <v>14.23493893063158</v>
       </c>
       <c r="I44" t="n">
-        <v>53.58647461229583</v>
+        <v>53.58647461229579</v>
       </c>
       <c r="J44" t="n">
-        <v>117.971209380075</v>
+        <v>117.9712093800749</v>
       </c>
       <c r="K44" t="n">
-        <v>176.808261979478</v>
+        <v>176.8082619794778</v>
       </c>
       <c r="L44" t="n">
-        <v>219.3462834415375</v>
+        <v>219.3462834415373</v>
       </c>
       <c r="M44" t="n">
-        <v>244.0650038328588</v>
+        <v>244.0650038328586</v>
       </c>
       <c r="N44" t="n">
-        <v>248.0142307569801</v>
+        <v>248.0142307569799</v>
       </c>
       <c r="O44" t="n">
-        <v>234.1928052482318</v>
+        <v>234.1928052482316</v>
       </c>
       <c r="P44" t="n">
-        <v>199.8781410373232</v>
+        <v>199.8781410373231</v>
       </c>
       <c r="Q44" t="n">
-        <v>150.1001597896002</v>
+        <v>150.1001597896</v>
       </c>
       <c r="R44" t="n">
-        <v>87.3121428147235</v>
+        <v>87.31214281472343</v>
       </c>
       <c r="S44" t="n">
-        <v>31.67373815518297</v>
+        <v>31.67373815518294</v>
       </c>
       <c r="T44" t="n">
-        <v>6.084554636283636</v>
+        <v>6.084554636283631</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1111968865568682</v>
+        <v>0.1111968865568681</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7436947430510361</v>
+        <v>0.7436947430510356</v>
       </c>
       <c r="H45" t="n">
-        <v>7.182525544729745</v>
+        <v>7.182525544729739</v>
       </c>
       <c r="I45" t="n">
-        <v>25.60527953048524</v>
+        <v>25.60527953048522</v>
       </c>
       <c r="J45" t="n">
-        <v>70.26284412308058</v>
+        <v>70.26284412308053</v>
       </c>
       <c r="K45" t="n">
-        <v>120.0903919075</v>
+        <v>120.0903919074999</v>
       </c>
       <c r="L45" t="n">
-        <v>161.4763519944805</v>
+        <v>161.4763519944803</v>
       </c>
       <c r="M45" t="n">
-        <v>188.4352864300805</v>
+        <v>188.4352864300803</v>
       </c>
       <c r="N45" t="n">
-        <v>193.4226077551903</v>
+        <v>193.4226077551902</v>
       </c>
       <c r="O45" t="n">
-        <v>176.9438979223226</v>
+        <v>176.9438979223225</v>
       </c>
       <c r="P45" t="n">
-        <v>142.0130777322632</v>
+        <v>142.0130777322631</v>
       </c>
       <c r="Q45" t="n">
-        <v>94.93198158665507</v>
+        <v>94.931981586655</v>
       </c>
       <c r="R45" t="n">
-        <v>46.17431045013365</v>
+        <v>46.17431045013361</v>
       </c>
       <c r="S45" t="n">
-        <v>13.81380367026814</v>
+        <v>13.81380367026813</v>
       </c>
       <c r="T45" t="n">
-        <v>2.997611705543429</v>
+        <v>2.997611705543427</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04892728572704187</v>
+        <v>0.04892728572704183</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6234886902484239</v>
+        <v>0.6234886902484235</v>
       </c>
       <c r="H46" t="n">
-        <v>5.543381264208719</v>
+        <v>5.543381264208714</v>
       </c>
       <c r="I46" t="n">
-        <v>18.75000533947079</v>
+        <v>18.75000533947077</v>
       </c>
       <c r="J46" t="n">
-        <v>44.08065040056357</v>
+        <v>44.08065040056353</v>
       </c>
       <c r="K46" t="n">
-        <v>72.43804964886233</v>
+        <v>72.43804964886228</v>
       </c>
       <c r="L46" t="n">
-        <v>92.69576400293388</v>
+        <v>92.6957640029338</v>
       </c>
       <c r="M46" t="n">
-        <v>97.73468623594157</v>
+        <v>97.73468623594148</v>
       </c>
       <c r="N46" t="n">
-        <v>95.4107738450157</v>
+        <v>95.41077384501563</v>
       </c>
       <c r="O46" t="n">
-        <v>88.12729232711362</v>
+        <v>88.12729232711355</v>
       </c>
       <c r="P46" t="n">
-        <v>75.40812304604572</v>
+        <v>75.40812304604566</v>
       </c>
       <c r="Q46" t="n">
-        <v>52.20867568980212</v>
+        <v>52.20867568980208</v>
       </c>
       <c r="R46" t="n">
-        <v>28.03431874517004</v>
+        <v>28.03431874517001</v>
       </c>
       <c r="S46" t="n">
-        <v>10.86570744732935</v>
+        <v>10.86570744732934</v>
       </c>
       <c r="T46" t="n">
-        <v>2.663997131061447</v>
+        <v>2.663997131061445</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03400847401355044</v>
+        <v>0.03400847401355041</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34941,16 +34941,16 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>6.48094395269159</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>15.67819014434953</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35020,19 +35020,19 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>18.9501304725631</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>0.4020199857058117</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>5.633336333898939</v>
       </c>
       <c r="L8" t="n">
-        <v>6.48094395269159</v>
+        <v>22.08482716139557</v>
       </c>
       <c r="M8" t="n">
-        <v>20.16697784598549</v>
+        <v>37.52930446208636</v>
       </c>
       <c r="N8" t="n">
-        <v>20.16697784598549</v>
+        <v>37.52930446208636</v>
       </c>
       <c r="O8" t="n">
-        <v>15.67819014434953</v>
+        <v>32.33822706896035</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>13.48588282609616</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>8.543005244543217</v>
       </c>
       <c r="L9" t="n">
-        <v>18.9501304725631</v>
+        <v>6.04854556683481</v>
       </c>
       <c r="M9" t="n">
-        <v>20.16697784598549</v>
+        <v>37.52930446208636</v>
       </c>
       <c r="N9" t="n">
-        <v>8.811767503898162</v>
+        <v>37.52930446208636</v>
       </c>
       <c r="O9" t="n">
-        <v>20.16697784598549</v>
+        <v>37.0909482541969</v>
       </c>
       <c r="P9" t="n">
-        <v>11.75723032779312</v>
+        <v>21.85977432477611</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>2.467499168241545</v>
+        <v>2.467499168241517</v>
       </c>
       <c r="K11" t="n">
-        <v>24.45480817519271</v>
+        <v>24.45480817519267</v>
       </c>
       <c r="L11" t="n">
-        <v>45.43452728890729</v>
+        <v>45.43452728890723</v>
       </c>
       <c r="M11" t="n">
-        <v>63.51034485950059</v>
+        <v>63.51034485950051</v>
       </c>
       <c r="N11" t="n">
-        <v>66.4254757014166</v>
+        <v>66.42547570141654</v>
       </c>
       <c r="O11" t="n">
-        <v>57.26835895343534</v>
+        <v>57.26835895343528</v>
       </c>
       <c r="P11" t="n">
-        <v>34.76317361050971</v>
+        <v>34.76317361050968</v>
       </c>
       <c r="Q11" t="n">
-        <v>6.398662934967163</v>
+        <v>6.398662934967135</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>21.32678528056491</v>
+        <v>21.3267852805649</v>
       </c>
       <c r="L12" t="n">
-        <v>47.62662517105474</v>
+        <v>47.6266251710547</v>
       </c>
       <c r="M12" t="n">
-        <v>63.49674396958338</v>
+        <v>63.49674396958334</v>
       </c>
       <c r="N12" t="n">
-        <v>71.07175948935097</v>
+        <v>71.07175948935091</v>
       </c>
       <c r="O12" t="n">
-        <v>55.92685871985324</v>
+        <v>55.92685871985319</v>
       </c>
       <c r="P12" t="n">
-        <v>36.97725307666553</v>
+        <v>36.97725307666551</v>
       </c>
       <c r="Q12" t="n">
-        <v>4.296824985098212</v>
+        <v>4.296824985097964</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35573,16 +35573,16 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>4.924482377316593</v>
+        <v>4.924482377316572</v>
       </c>
       <c r="M13" t="n">
-        <v>6.525110163847657</v>
+        <v>6.525110163847629</v>
       </c>
       <c r="N13" t="n">
-        <v>9.584400044559324</v>
+        <v>9.584400044559303</v>
       </c>
       <c r="O13" t="n">
-        <v>0.5428447094972029</v>
+        <v>0.5428447094971816</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>2.467499168241545</v>
+        <v>2.467499168241488</v>
       </c>
       <c r="K14" t="n">
-        <v>24.45480817519271</v>
+        <v>24.45480817519264</v>
       </c>
       <c r="L14" t="n">
-        <v>45.43452728890729</v>
+        <v>45.43452728890718</v>
       </c>
       <c r="M14" t="n">
-        <v>63.51034485950059</v>
+        <v>63.51034485950048</v>
       </c>
       <c r="N14" t="n">
-        <v>66.4254757014166</v>
+        <v>66.42547570141652</v>
       </c>
       <c r="O14" t="n">
-        <v>57.26835895343534</v>
+        <v>57.26835895343525</v>
       </c>
       <c r="P14" t="n">
-        <v>34.76317361050971</v>
+        <v>34.76317361050965</v>
       </c>
       <c r="Q14" t="n">
-        <v>6.398662934967163</v>
+        <v>6.398662934967106</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>21.32678528056493</v>
+        <v>21.32678528056487</v>
       </c>
       <c r="L15" t="n">
-        <v>47.62662517105474</v>
+        <v>47.62662517105467</v>
       </c>
       <c r="M15" t="n">
-        <v>63.49674396958338</v>
+        <v>63.49674396958331</v>
       </c>
       <c r="N15" t="n">
-        <v>71.07175948935097</v>
+        <v>71.07175948935088</v>
       </c>
       <c r="O15" t="n">
-        <v>55.92685871985324</v>
+        <v>55.92685871985316</v>
       </c>
       <c r="P15" t="n">
-        <v>36.97725307666553</v>
+        <v>36.97725307666548</v>
       </c>
       <c r="Q15" t="n">
-        <v>4.296824985098212</v>
+        <v>4.296824985098176</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35810,16 +35810,16 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>4.924482377316593</v>
+        <v>4.924482377316551</v>
       </c>
       <c r="M16" t="n">
-        <v>6.525110163847657</v>
+        <v>6.525110163847614</v>
       </c>
       <c r="N16" t="n">
-        <v>9.584400044559324</v>
+        <v>9.584400044559288</v>
       </c>
       <c r="O16" t="n">
-        <v>0.5428447094972029</v>
+        <v>0.5428447094971673</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>2.467499168241545</v>
+        <v>2.467499168241488</v>
       </c>
       <c r="K17" t="n">
-        <v>24.45480817519271</v>
+        <v>24.45480817519262</v>
       </c>
       <c r="L17" t="n">
-        <v>45.43452728890729</v>
+        <v>45.43452728890718</v>
       </c>
       <c r="M17" t="n">
-        <v>63.51034485950059</v>
+        <v>63.51034485950045</v>
       </c>
       <c r="N17" t="n">
-        <v>66.4254757014166</v>
+        <v>66.42547570141649</v>
       </c>
       <c r="O17" t="n">
-        <v>57.26835895343534</v>
+        <v>57.26835895343523</v>
       </c>
       <c r="P17" t="n">
-        <v>34.76317361050971</v>
+        <v>34.76317361050963</v>
       </c>
       <c r="Q17" t="n">
-        <v>6.398662934967163</v>
+        <v>6.398662934967092</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>21.32678528056493</v>
+        <v>21.32678528056487</v>
       </c>
       <c r="L18" t="n">
-        <v>47.62662517105474</v>
+        <v>47.62662517105466</v>
       </c>
       <c r="M18" t="n">
-        <v>63.49674396958338</v>
+        <v>63.4967439695833</v>
       </c>
       <c r="N18" t="n">
-        <v>71.07175948935097</v>
+        <v>71.07175948935085</v>
       </c>
       <c r="O18" t="n">
-        <v>55.92685871985324</v>
+        <v>55.92685871985315</v>
       </c>
       <c r="P18" t="n">
-        <v>36.97725307666553</v>
+        <v>36.97725307666546</v>
       </c>
       <c r="Q18" t="n">
-        <v>4.296824985098212</v>
+        <v>4.296824985098169</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36047,16 +36047,16 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>4.924482377316593</v>
+        <v>4.924482377316544</v>
       </c>
       <c r="M19" t="n">
-        <v>6.525110163847657</v>
+        <v>6.525110163847607</v>
       </c>
       <c r="N19" t="n">
-        <v>9.584400044559324</v>
+        <v>9.584400044559281</v>
       </c>
       <c r="O19" t="n">
-        <v>0.5428447094972029</v>
+        <v>0.5428447094971602</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>2.467499168241545</v>
+        <v>2.467499168241488</v>
       </c>
       <c r="K20" t="n">
-        <v>24.45480817519271</v>
+        <v>24.45480817519262</v>
       </c>
       <c r="L20" t="n">
-        <v>45.43452728890729</v>
+        <v>45.43452728890718</v>
       </c>
       <c r="M20" t="n">
-        <v>63.51034485950059</v>
+        <v>63.51034485950045</v>
       </c>
       <c r="N20" t="n">
-        <v>66.4254757014166</v>
+        <v>66.42547570141649</v>
       </c>
       <c r="O20" t="n">
-        <v>57.26835895343534</v>
+        <v>57.26835895343523</v>
       </c>
       <c r="P20" t="n">
-        <v>34.76317361050971</v>
+        <v>34.76317361050963</v>
       </c>
       <c r="Q20" t="n">
-        <v>6.398662934967163</v>
+        <v>6.398662934967092</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>21.32678528056493</v>
+        <v>21.32678528056487</v>
       </c>
       <c r="L21" t="n">
-        <v>47.62662517105474</v>
+        <v>47.62662517105466</v>
       </c>
       <c r="M21" t="n">
-        <v>63.49674396958338</v>
+        <v>63.4967439695833</v>
       </c>
       <c r="N21" t="n">
-        <v>71.07175948935097</v>
+        <v>71.07175948935085</v>
       </c>
       <c r="O21" t="n">
-        <v>55.92685871985324</v>
+        <v>55.92685871985315</v>
       </c>
       <c r="P21" t="n">
-        <v>36.97725307666553</v>
+        <v>36.97725307666546</v>
       </c>
       <c r="Q21" t="n">
-        <v>4.296824985098212</v>
+        <v>4.296824985098169</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36284,16 +36284,16 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>4.924482377316593</v>
+        <v>4.924482377316544</v>
       </c>
       <c r="M22" t="n">
-        <v>6.525110163847657</v>
+        <v>6.525110163847607</v>
       </c>
       <c r="N22" t="n">
-        <v>9.584400044559324</v>
+        <v>9.584400044559281</v>
       </c>
       <c r="O22" t="n">
-        <v>0.5428447094972029</v>
+        <v>0.5428447094971602</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>44.64761804676709</v>
+        <v>44.64761804676699</v>
       </c>
       <c r="K44" t="n">
-        <v>87.67187230626085</v>
+        <v>87.67187230626071</v>
       </c>
       <c r="L44" t="n">
-        <v>123.8608853786927</v>
+        <v>123.8608853786925</v>
       </c>
       <c r="M44" t="n">
-        <v>150.7747793758133</v>
+        <v>150.7747793758131</v>
       </c>
       <c r="N44" t="n">
-        <v>155.1019400003607</v>
+        <v>155.1019400003605</v>
       </c>
       <c r="O44" t="n">
-        <v>141.0030296224487</v>
+        <v>141.0030296224485</v>
       </c>
       <c r="P44" t="n">
-        <v>106.2287777564391</v>
+        <v>106.2287777564389</v>
       </c>
       <c r="Q44" t="n">
-        <v>60.06635539044811</v>
+        <v>60.06635539044797</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>18.89360532308057</v>
+        <v>18.89360532308051</v>
       </c>
       <c r="K45" t="n">
-        <v>64.26460912288459</v>
+        <v>64.26460912288451</v>
       </c>
       <c r="L45" t="n">
-        <v>105.3618281836314</v>
+        <v>105.3618281836313</v>
       </c>
       <c r="M45" t="n">
-        <v>130.8710026916631</v>
+        <v>130.8710026916629</v>
       </c>
       <c r="N45" t="n">
-        <v>140.2292143614403</v>
+        <v>140.2292143614402</v>
       </c>
       <c r="O45" t="n">
-        <v>119.1924189223226</v>
+        <v>119.1924189223225</v>
       </c>
       <c r="P45" t="n">
-        <v>87.75344272945946</v>
+        <v>87.75344272945935</v>
       </c>
       <c r="Q45" t="n">
-        <v>38.23936308181635</v>
+        <v>38.23936308181628</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,22 +38177,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>20.18768008979551</v>
+        <v>20.18768008979545</v>
       </c>
       <c r="L46" t="n">
-        <v>38.06747010903238</v>
+        <v>38.06747010903229</v>
       </c>
       <c r="M46" t="n">
-        <v>41.46974373716152</v>
+        <v>41.46974373716144</v>
       </c>
       <c r="N46" t="n">
-        <v>43.69812833659626</v>
+        <v>43.69812833659618</v>
       </c>
       <c r="O46" t="n">
-        <v>32.0523942541173</v>
+        <v>32.05239425411722</v>
       </c>
       <c r="P46" t="n">
-        <v>19.62828140614094</v>
+        <v>19.62828140614088</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
